--- a/base/Манга/Дискомир.xlsx
+++ b/base/Манга/Дискомир.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NODE\base\Манга\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AB7199-B7E1-40A2-8E2B-38B067928CCC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63F3632-E475-45F4-B570-7739989F96D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -304,9 +304,6 @@
     <t>700 руб.</t>
   </si>
   <si>
-    <t>Манга Атака на Титанов / Shingeki no Kyojin Том 7. Книги 13 и 14</t>
-  </si>
-  <si>
     <t>https://diskomir.ru/catalog/manga_ataka_na_titanov_shingeki_no_kyojin_tom_7_knigi_13_i_14_479223/</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>https://diskomir.ru/upload/iblock/066/manga-bez-igry-zhizni-net-no-game-no-life-tom-1.jpg</t>
   </si>
   <si>
-    <t>Манга Нахальный принц и кошка-несмеяна  / Hentai Ouji to Warawanai Neko. Том 1</t>
-  </si>
-  <si>
     <t>https://diskomir.ru/catalog/manga_nakhalnyy_prints_i_koshka_nesmeyana_hentai_ouji_to_warawanai_neko_tom_1_83298/</t>
   </si>
   <si>
@@ -2300,6 +2294,12 @@
   </si>
   <si>
     <t>https://diskomir.ru/upload/iblock/810/manga-seylor-mun-sailor-moon-tom-6.jpeg</t>
+  </si>
+  <si>
+    <t>Манга Нахальный принц и кошка-несмеяна. Том 1</t>
+  </si>
+  <si>
+    <t>Манга Атака на Титанов. Том 7. Книги 13 и 14</t>
   </si>
 </sst>
 </file>
@@ -2335,8 +2335,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2676,17 +2679,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D241"/>
+  <dimension ref="A1:D483"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="G167" sqref="G167"/>
+    <sheetView tabSelected="1" topLeftCell="A467" workbookViewId="0">
+      <selection activeCell="B244" sqref="B244:B483"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69.5" customWidth="1"/>
-    <col min="2" max="2" width="35.5" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="2" max="2" width="67" customWidth="1"/>
+    <col min="3" max="3" width="40.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -3069,13 +3073,13 @@
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>759</v>
+      </c>
+      <c r="B28" t="s">
         <v>94</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>95</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
       </c>
       <c r="D28" t="s">
         <v>37</v>
@@ -3083,13 +3087,13 @@
     </row>
     <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
         <v>97</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>98</v>
-      </c>
-      <c r="C29" t="s">
-        <v>99</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -3097,13 +3101,13 @@
     </row>
     <row r="30" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" t="s">
         <v>100</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>101</v>
-      </c>
-      <c r="C30" t="s">
-        <v>102</v>
       </c>
       <c r="D30" t="s">
         <v>22</v>
@@ -3111,27 +3115,27 @@
     </row>
     <row r="31" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>758</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
         <v>103</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D31" t="s">
         <v>104</v>
-      </c>
-      <c r="C31" t="s">
-        <v>105</v>
-      </c>
-      <c r="D31" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
         <v>107</v>
-      </c>
-      <c r="B32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" t="s">
-        <v>109</v>
       </c>
       <c r="D32" t="s">
         <v>22</v>
@@ -3139,13 +3143,13 @@
     </row>
     <row r="33" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" t="s">
         <v>110</v>
-      </c>
-      <c r="B33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C33" t="s">
-        <v>112</v>
       </c>
       <c r="D33" t="s">
         <v>57</v>
@@ -3153,13 +3157,13 @@
     </row>
     <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
         <v>113</v>
-      </c>
-      <c r="B34" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" t="s">
-        <v>115</v>
       </c>
       <c r="D34" t="s">
         <v>57</v>
@@ -3167,13 +3171,13 @@
     </row>
     <row r="35" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" t="s">
         <v>116</v>
-      </c>
-      <c r="B35" t="s">
-        <v>117</v>
-      </c>
-      <c r="C35" t="s">
-        <v>118</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -3181,13 +3185,13 @@
     </row>
     <row r="36" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" t="s">
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
         <v>119</v>
-      </c>
-      <c r="B36" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -3195,13 +3199,13 @@
     </row>
     <row r="37" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" t="s">
         <v>122</v>
-      </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" t="s">
-        <v>124</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -3209,13 +3213,13 @@
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" t="s">
+        <v>124</v>
+      </c>
+      <c r="C38" t="s">
         <v>125</v>
-      </c>
-      <c r="B38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C38" t="s">
-        <v>127</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -3223,13 +3227,13 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
         <v>128</v>
-      </c>
-      <c r="B39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C39" t="s">
-        <v>130</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -3237,13 +3241,13 @@
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
         <v>131</v>
-      </c>
-      <c r="B40" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" t="s">
-        <v>133</v>
       </c>
       <c r="D40" t="s">
         <v>7</v>
@@ -3251,13 +3255,13 @@
     </row>
     <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
         <v>134</v>
-      </c>
-      <c r="B41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" t="s">
-        <v>136</v>
       </c>
       <c r="D41" t="s">
         <v>93</v>
@@ -3265,13 +3269,13 @@
     </row>
     <row r="42" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
         <v>137</v>
-      </c>
-      <c r="B42" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" t="s">
-        <v>139</v>
       </c>
       <c r="D42" t="s">
         <v>57</v>
@@ -3279,27 +3283,27 @@
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
         <v>140</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>141</v>
-      </c>
-      <c r="C43" t="s">
-        <v>142</v>
-      </c>
-      <c r="D43" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
         <v>144</v>
-      </c>
-      <c r="B44" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" t="s">
-        <v>146</v>
       </c>
       <c r="D44" t="s">
         <v>93</v>
@@ -3307,13 +3311,13 @@
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" t="s">
         <v>147</v>
-      </c>
-      <c r="B45" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" t="s">
-        <v>149</v>
       </c>
       <c r="D45" t="s">
         <v>77</v>
@@ -3321,13 +3325,13 @@
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" t="s">
         <v>150</v>
-      </c>
-      <c r="B46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" t="s">
-        <v>152</v>
       </c>
       <c r="D46" t="s">
         <v>93</v>
@@ -3335,13 +3339,13 @@
     </row>
     <row r="47" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" t="s">
         <v>153</v>
-      </c>
-      <c r="B47" t="s">
-        <v>154</v>
-      </c>
-      <c r="C47" t="s">
-        <v>155</v>
       </c>
       <c r="D47" t="s">
         <v>77</v>
@@ -3349,13 +3353,13 @@
     </row>
     <row r="48" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" t="s">
         <v>156</v>
-      </c>
-      <c r="B48" t="s">
-        <v>157</v>
-      </c>
-      <c r="C48" t="s">
-        <v>158</v>
       </c>
       <c r="D48" t="s">
         <v>77</v>
@@ -3363,13 +3367,13 @@
     </row>
     <row r="49" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" t="s">
         <v>159</v>
-      </c>
-      <c r="B49" t="s">
-        <v>160</v>
-      </c>
-      <c r="C49" t="s">
-        <v>161</v>
       </c>
       <c r="D49" t="s">
         <v>37</v>
@@ -3377,13 +3381,13 @@
     </row>
     <row r="50" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" t="s">
         <v>162</v>
-      </c>
-      <c r="B50" t="s">
-        <v>163</v>
-      </c>
-      <c r="C50" t="s">
-        <v>164</v>
       </c>
       <c r="D50" t="s">
         <v>37</v>
@@ -3391,13 +3395,13 @@
     </row>
     <row r="51" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" t="s">
+        <v>164</v>
+      </c>
+      <c r="C51" t="s">
         <v>165</v>
-      </c>
-      <c r="B51" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" t="s">
-        <v>167</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
@@ -3405,13 +3409,13 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>166</v>
+      </c>
+      <c r="B52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" t="s">
         <v>168</v>
-      </c>
-      <c r="B52" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" t="s">
-        <v>170</v>
       </c>
       <c r="D52" t="s">
         <v>37</v>
@@ -3419,13 +3423,13 @@
     </row>
     <row r="53" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>169</v>
+      </c>
+      <c r="B53" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" t="s">
         <v>171</v>
-      </c>
-      <c r="B53" t="s">
-        <v>172</v>
-      </c>
-      <c r="C53" t="s">
-        <v>173</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -3433,69 +3437,69 @@
     </row>
     <row r="54" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C54" t="s">
         <v>174</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>175</v>
-      </c>
-      <c r="C54" t="s">
-        <v>176</v>
-      </c>
-      <c r="D54" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" t="s">
         <v>178</v>
       </c>
-      <c r="B55" t="s">
-        <v>179</v>
-      </c>
-      <c r="C55" t="s">
-        <v>180</v>
-      </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" t="s">
         <v>181</v>
       </c>
-      <c r="B56" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" t="s">
-        <v>183</v>
-      </c>
       <c r="D56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>182</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" t="s">
         <v>184</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>185</v>
-      </c>
-      <c r="C57" t="s">
-        <v>186</v>
-      </c>
-      <c r="D57" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" t="s">
+        <v>187</v>
+      </c>
+      <c r="C58" t="s">
         <v>188</v>
-      </c>
-      <c r="B58" t="s">
-        <v>189</v>
-      </c>
-      <c r="C58" t="s">
-        <v>190</v>
       </c>
       <c r="D58" t="s">
         <v>41</v>
@@ -3503,13 +3507,13 @@
     </row>
     <row r="59" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>189</v>
+      </c>
+      <c r="B59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" t="s">
         <v>191</v>
-      </c>
-      <c r="B59" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" t="s">
-        <v>193</v>
       </c>
       <c r="D59" t="s">
         <v>77</v>
@@ -3517,41 +3521,41 @@
     </row>
     <row r="60" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" t="s">
         <v>194</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="s">
         <v>195</v>
-      </c>
-      <c r="C60" t="s">
-        <v>196</v>
-      </c>
-      <c r="D60" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" t="s">
         <v>198</v>
       </c>
-      <c r="B61" t="s">
-        <v>199</v>
-      </c>
-      <c r="C61" t="s">
-        <v>200</v>
-      </c>
       <c r="D61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>199</v>
+      </c>
+      <c r="B62" t="s">
+        <v>200</v>
+      </c>
+      <c r="C62" t="s">
         <v>201</v>
-      </c>
-      <c r="B62" t="s">
-        <v>202</v>
-      </c>
-      <c r="C62" t="s">
-        <v>203</v>
       </c>
       <c r="D62" t="s">
         <v>57</v>
@@ -3559,55 +3563,55 @@
     </row>
     <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" t="s">
         <v>204</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
         <v>205</v>
-      </c>
-      <c r="C63" t="s">
-        <v>206</v>
-      </c>
-      <c r="D63" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>206</v>
+      </c>
+      <c r="B64" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" t="s">
         <v>208</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
         <v>209</v>
-      </c>
-      <c r="C64" t="s">
-        <v>210</v>
-      </c>
-      <c r="D64" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>210</v>
+      </c>
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+      <c r="C65" t="s">
         <v>212</v>
       </c>
-      <c r="B65" t="s">
-        <v>213</v>
-      </c>
-      <c r="C65" t="s">
-        <v>214</v>
-      </c>
       <c r="D65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>213</v>
+      </c>
+      <c r="B66" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" t="s">
         <v>215</v>
-      </c>
-      <c r="B66" t="s">
-        <v>216</v>
-      </c>
-      <c r="C66" t="s">
-        <v>217</v>
       </c>
       <c r="D66" t="s">
         <v>57</v>
@@ -3615,13 +3619,13 @@
     </row>
     <row r="67" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" t="s">
         <v>218</v>
-      </c>
-      <c r="B67" t="s">
-        <v>219</v>
-      </c>
-      <c r="C67" t="s">
-        <v>220</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -3629,27 +3633,27 @@
     </row>
     <row r="68" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>219</v>
+      </c>
+      <c r="B68" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68" t="s">
         <v>221</v>
       </c>
-      <c r="B68" t="s">
-        <v>222</v>
-      </c>
-      <c r="C68" t="s">
-        <v>223</v>
-      </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>222</v>
+      </c>
+      <c r="B69" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" t="s">
         <v>224</v>
-      </c>
-      <c r="B69" t="s">
-        <v>225</v>
-      </c>
-      <c r="C69" t="s">
-        <v>226</v>
       </c>
       <c r="D69" t="s">
         <v>77</v>
@@ -3657,13 +3661,13 @@
     </row>
     <row r="70" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>225</v>
+      </c>
+      <c r="B70" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" t="s">
         <v>227</v>
-      </c>
-      <c r="B70" t="s">
-        <v>228</v>
-      </c>
-      <c r="C70" t="s">
-        <v>229</v>
       </c>
       <c r="D70" t="s">
         <v>26</v>
@@ -3671,13 +3675,13 @@
     </row>
     <row r="71" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" t="s">
         <v>230</v>
-      </c>
-      <c r="B71" t="s">
-        <v>231</v>
-      </c>
-      <c r="C71" t="s">
-        <v>232</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
@@ -3685,13 +3689,13 @@
     </row>
     <row r="72" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" t="s">
         <v>233</v>
-      </c>
-      <c r="B72" t="s">
-        <v>234</v>
-      </c>
-      <c r="C72" t="s">
-        <v>235</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
@@ -3699,13 +3703,13 @@
     </row>
     <row r="73" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>234</v>
+      </c>
+      <c r="B73" t="s">
+        <v>235</v>
+      </c>
+      <c r="C73" t="s">
         <v>236</v>
-      </c>
-      <c r="B73" t="s">
-        <v>237</v>
-      </c>
-      <c r="C73" t="s">
-        <v>238</v>
       </c>
       <c r="D73" t="s">
         <v>93</v>
@@ -3713,41 +3717,41 @@
     </row>
     <row r="74" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>237</v>
+      </c>
+      <c r="B74" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" t="s">
         <v>239</v>
       </c>
-      <c r="B74" t="s">
-        <v>240</v>
-      </c>
-      <c r="C74" t="s">
-        <v>241</v>
-      </c>
       <c r="D74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>240</v>
+      </c>
+      <c r="B75" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" t="s">
         <v>242</v>
       </c>
-      <c r="B75" t="s">
-        <v>243</v>
-      </c>
-      <c r="C75" t="s">
-        <v>244</v>
-      </c>
       <c r="D75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>243</v>
+      </c>
+      <c r="B76" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" t="s">
         <v>245</v>
-      </c>
-      <c r="B76" t="s">
-        <v>246</v>
-      </c>
-      <c r="C76" t="s">
-        <v>247</v>
       </c>
       <c r="D76" t="s">
         <v>26</v>
@@ -3755,27 +3759,27 @@
     </row>
     <row r="77" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>246</v>
+      </c>
+      <c r="B77" t="s">
+        <v>247</v>
+      </c>
+      <c r="C77" t="s">
         <v>248</v>
       </c>
-      <c r="B77" t="s">
-        <v>249</v>
-      </c>
-      <c r="C77" t="s">
-        <v>250</v>
-      </c>
       <c r="D77" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>249</v>
+      </c>
+      <c r="B78" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" t="s">
         <v>251</v>
-      </c>
-      <c r="B78" t="s">
-        <v>252</v>
-      </c>
-      <c r="C78" t="s">
-        <v>253</v>
       </c>
       <c r="D78" t="s">
         <v>77</v>
@@ -3783,13 +3787,13 @@
     </row>
     <row r="79" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>252</v>
+      </c>
+      <c r="B79" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" t="s">
         <v>254</v>
-      </c>
-      <c r="B79" t="s">
-        <v>255</v>
-      </c>
-      <c r="C79" t="s">
-        <v>256</v>
       </c>
       <c r="D79" t="s">
         <v>37</v>
@@ -3797,13 +3801,13 @@
     </row>
     <row r="80" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>255</v>
+      </c>
+      <c r="B80" t="s">
+        <v>256</v>
+      </c>
+      <c r="C80" t="s">
         <v>257</v>
-      </c>
-      <c r="B80" t="s">
-        <v>258</v>
-      </c>
-      <c r="C80" t="s">
-        <v>259</v>
       </c>
       <c r="D80" t="s">
         <v>93</v>
@@ -3811,13 +3815,13 @@
     </row>
     <row r="81" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>258</v>
+      </c>
+      <c r="B81" t="s">
+        <v>259</v>
+      </c>
+      <c r="C81" t="s">
         <v>260</v>
-      </c>
-      <c r="B81" t="s">
-        <v>261</v>
-      </c>
-      <c r="C81" t="s">
-        <v>262</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
@@ -3825,13 +3829,13 @@
     </row>
     <row r="82" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>261</v>
+      </c>
+      <c r="B82" t="s">
+        <v>262</v>
+      </c>
+      <c r="C82" t="s">
         <v>263</v>
-      </c>
-      <c r="B82" t="s">
-        <v>264</v>
-      </c>
-      <c r="C82" t="s">
-        <v>265</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
@@ -3839,13 +3843,13 @@
     </row>
     <row r="83" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>264</v>
+      </c>
+      <c r="B83" t="s">
+        <v>265</v>
+      </c>
+      <c r="C83" t="s">
         <v>266</v>
-      </c>
-      <c r="B83" t="s">
-        <v>267</v>
-      </c>
-      <c r="C83" t="s">
-        <v>268</v>
       </c>
       <c r="D83" t="s">
         <v>93</v>
@@ -3853,13 +3857,13 @@
     </row>
     <row r="84" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>267</v>
+      </c>
+      <c r="B84" t="s">
+        <v>268</v>
+      </c>
+      <c r="C84" t="s">
         <v>269</v>
-      </c>
-      <c r="B84" t="s">
-        <v>270</v>
-      </c>
-      <c r="C84" t="s">
-        <v>271</v>
       </c>
       <c r="D84" t="s">
         <v>77</v>
@@ -3867,13 +3871,13 @@
     </row>
     <row r="85" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>270</v>
+      </c>
+      <c r="B85" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" t="s">
         <v>272</v>
-      </c>
-      <c r="B85" t="s">
-        <v>273</v>
-      </c>
-      <c r="C85" t="s">
-        <v>274</v>
       </c>
       <c r="D85" t="s">
         <v>93</v>
@@ -3881,13 +3885,13 @@
     </row>
     <row r="86" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>273</v>
+      </c>
+      <c r="B86" t="s">
+        <v>274</v>
+      </c>
+      <c r="C86" t="s">
         <v>275</v>
-      </c>
-      <c r="B86" t="s">
-        <v>276</v>
-      </c>
-      <c r="C86" t="s">
-        <v>277</v>
       </c>
       <c r="D86" t="s">
         <v>77</v>
@@ -3895,13 +3899,13 @@
     </row>
     <row r="87" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" t="s">
+        <v>277</v>
+      </c>
+      <c r="C87" t="s">
         <v>278</v>
-      </c>
-      <c r="B87" t="s">
-        <v>279</v>
-      </c>
-      <c r="C87" t="s">
-        <v>280</v>
       </c>
       <c r="D87" t="s">
         <v>15</v>
@@ -3909,13 +3913,13 @@
     </row>
     <row r="88" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>279</v>
+      </c>
+      <c r="B88" t="s">
+        <v>280</v>
+      </c>
+      <c r="C88" t="s">
         <v>281</v>
-      </c>
-      <c r="B88" t="s">
-        <v>282</v>
-      </c>
-      <c r="C88" t="s">
-        <v>283</v>
       </c>
       <c r="D88" t="s">
         <v>15</v>
@@ -3923,13 +3927,13 @@
     </row>
     <row r="89" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>282</v>
+      </c>
+      <c r="B89" t="s">
+        <v>283</v>
+      </c>
+      <c r="C89" t="s">
         <v>284</v>
-      </c>
-      <c r="B89" t="s">
-        <v>285</v>
-      </c>
-      <c r="C89" t="s">
-        <v>286</v>
       </c>
       <c r="D89" t="s">
         <v>15</v>
@@ -3937,13 +3941,13 @@
     </row>
     <row r="90" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>285</v>
+      </c>
+      <c r="B90" t="s">
+        <v>286</v>
+      </c>
+      <c r="C90" t="s">
         <v>287</v>
-      </c>
-      <c r="B90" t="s">
-        <v>288</v>
-      </c>
-      <c r="C90" t="s">
-        <v>289</v>
       </c>
       <c r="D90" t="s">
         <v>15</v>
@@ -3951,13 +3955,13 @@
     </row>
     <row r="91" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>288</v>
+      </c>
+      <c r="B91" t="s">
+        <v>289</v>
+      </c>
+      <c r="C91" t="s">
         <v>290</v>
-      </c>
-      <c r="B91" t="s">
-        <v>291</v>
-      </c>
-      <c r="C91" t="s">
-        <v>292</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
@@ -3965,13 +3969,13 @@
     </row>
     <row r="92" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>291</v>
+      </c>
+      <c r="B92" t="s">
+        <v>292</v>
+      </c>
+      <c r="C92" t="s">
         <v>293</v>
-      </c>
-      <c r="B92" t="s">
-        <v>294</v>
-      </c>
-      <c r="C92" t="s">
-        <v>295</v>
       </c>
       <c r="D92" t="s">
         <v>41</v>
@@ -3979,13 +3983,13 @@
     </row>
     <row r="93" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" t="s">
         <v>296</v>
-      </c>
-      <c r="B93" t="s">
-        <v>297</v>
-      </c>
-      <c r="C93" t="s">
-        <v>298</v>
       </c>
       <c r="D93" t="s">
         <v>15</v>
@@ -3993,13 +3997,13 @@
     </row>
     <row r="94" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>297</v>
+      </c>
+      <c r="B94" t="s">
+        <v>298</v>
+      </c>
+      <c r="C94" t="s">
         <v>299</v>
-      </c>
-      <c r="B94" t="s">
-        <v>300</v>
-      </c>
-      <c r="C94" t="s">
-        <v>301</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
@@ -4007,27 +4011,27 @@
     </row>
     <row r="95" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>300</v>
+      </c>
+      <c r="B95" t="s">
+        <v>301</v>
+      </c>
+      <c r="C95" t="s">
         <v>302</v>
       </c>
-      <c r="B95" t="s">
-        <v>303</v>
-      </c>
-      <c r="C95" t="s">
-        <v>304</v>
-      </c>
       <c r="D95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>303</v>
+      </c>
+      <c r="B96" t="s">
+        <v>304</v>
+      </c>
+      <c r="C96" t="s">
         <v>305</v>
-      </c>
-      <c r="B96" t="s">
-        <v>306</v>
-      </c>
-      <c r="C96" t="s">
-        <v>307</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
@@ -4035,83 +4039,83 @@
     </row>
     <row r="97" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>306</v>
+      </c>
+      <c r="B97" t="s">
+        <v>307</v>
+      </c>
+      <c r="C97" t="s">
         <v>308</v>
       </c>
-      <c r="B97" t="s">
-        <v>309</v>
-      </c>
-      <c r="C97" t="s">
-        <v>310</v>
-      </c>
       <c r="D97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>309</v>
+      </c>
+      <c r="B98" t="s">
+        <v>310</v>
+      </c>
+      <c r="C98" t="s">
         <v>311</v>
       </c>
-      <c r="B98" t="s">
-        <v>312</v>
-      </c>
-      <c r="C98" t="s">
-        <v>313</v>
-      </c>
       <c r="D98" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>312</v>
+      </c>
+      <c r="B99" t="s">
+        <v>313</v>
+      </c>
+      <c r="C99" t="s">
         <v>314</v>
       </c>
-      <c r="B99" t="s">
+      <c r="D99" t="s">
         <v>315</v>
-      </c>
-      <c r="C99" t="s">
-        <v>316</v>
-      </c>
-      <c r="D99" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>316</v>
+      </c>
+      <c r="B100" t="s">
+        <v>317</v>
+      </c>
+      <c r="C100" t="s">
         <v>318</v>
       </c>
-      <c r="B100" t="s">
-        <v>319</v>
-      </c>
-      <c r="C100" t="s">
-        <v>320</v>
-      </c>
       <c r="D100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>319</v>
+      </c>
+      <c r="B101" t="s">
+        <v>320</v>
+      </c>
+      <c r="C101" t="s">
         <v>321</v>
       </c>
-      <c r="B101" t="s">
-        <v>322</v>
-      </c>
-      <c r="C101" t="s">
-        <v>323</v>
-      </c>
       <c r="D101" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>322</v>
+      </c>
+      <c r="B102" t="s">
+        <v>323</v>
+      </c>
+      <c r="C102" t="s">
         <v>324</v>
-      </c>
-      <c r="B102" t="s">
-        <v>325</v>
-      </c>
-      <c r="C102" t="s">
-        <v>326</v>
       </c>
       <c r="D102" t="s">
         <v>15</v>
@@ -4119,13 +4123,13 @@
     </row>
     <row r="103" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>325</v>
+      </c>
+      <c r="B103" t="s">
+        <v>326</v>
+      </c>
+      <c r="C103" t="s">
         <v>327</v>
-      </c>
-      <c r="B103" t="s">
-        <v>328</v>
-      </c>
-      <c r="C103" t="s">
-        <v>329</v>
       </c>
       <c r="D103" t="s">
         <v>15</v>
@@ -4133,83 +4137,83 @@
     </row>
     <row r="104" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>328</v>
+      </c>
+      <c r="B104" t="s">
+        <v>329</v>
+      </c>
+      <c r="C104" t="s">
         <v>330</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>331</v>
-      </c>
-      <c r="C104" t="s">
-        <v>332</v>
-      </c>
-      <c r="D104" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>332</v>
+      </c>
+      <c r="B105" t="s">
+        <v>333</v>
+      </c>
+      <c r="C105" t="s">
         <v>334</v>
       </c>
-      <c r="B105" t="s">
-        <v>335</v>
-      </c>
-      <c r="C105" t="s">
-        <v>336</v>
-      </c>
       <c r="D105" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106" t="s">
+        <v>336</v>
+      </c>
+      <c r="C106" t="s">
         <v>337</v>
       </c>
-      <c r="B106" t="s">
-        <v>338</v>
-      </c>
-      <c r="C106" t="s">
-        <v>339</v>
-      </c>
       <c r="D106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>338</v>
+      </c>
+      <c r="B107" t="s">
+        <v>339</v>
+      </c>
+      <c r="C107" t="s">
         <v>340</v>
       </c>
-      <c r="B107" t="s">
+      <c r="D107" t="s">
         <v>341</v>
-      </c>
-      <c r="C107" t="s">
-        <v>342</v>
-      </c>
-      <c r="D107" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>342</v>
+      </c>
+      <c r="B108" t="s">
+        <v>343</v>
+      </c>
+      <c r="C108" t="s">
         <v>344</v>
       </c>
-      <c r="B108" t="s">
-        <v>345</v>
-      </c>
-      <c r="C108" t="s">
-        <v>346</v>
-      </c>
       <c r="D108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>345</v>
+      </c>
+      <c r="B109" t="s">
+        <v>346</v>
+      </c>
+      <c r="C109" t="s">
         <v>347</v>
-      </c>
-      <c r="B109" t="s">
-        <v>348</v>
-      </c>
-      <c r="C109" t="s">
-        <v>349</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
@@ -4217,27 +4221,27 @@
     </row>
     <row r="110" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>348</v>
+      </c>
+      <c r="B110" t="s">
+        <v>349</v>
+      </c>
+      <c r="C110" t="s">
         <v>350</v>
       </c>
-      <c r="B110" t="s">
-        <v>351</v>
-      </c>
-      <c r="C110" t="s">
-        <v>352</v>
-      </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>351</v>
+      </c>
+      <c r="B111" t="s">
+        <v>352</v>
+      </c>
+      <c r="C111" t="s">
         <v>353</v>
-      </c>
-      <c r="B111" t="s">
-        <v>354</v>
-      </c>
-      <c r="C111" t="s">
-        <v>355</v>
       </c>
       <c r="D111" t="s">
         <v>41</v>
@@ -4245,13 +4249,13 @@
     </row>
     <row r="112" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>354</v>
+      </c>
+      <c r="B112" t="s">
+        <v>355</v>
+      </c>
+      <c r="C112" t="s">
         <v>356</v>
-      </c>
-      <c r="B112" t="s">
-        <v>357</v>
-      </c>
-      <c r="C112" t="s">
-        <v>358</v>
       </c>
       <c r="D112" t="s">
         <v>41</v>
@@ -4259,27 +4263,27 @@
     </row>
     <row r="113" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>357</v>
+      </c>
+      <c r="B113" t="s">
+        <v>358</v>
+      </c>
+      <c r="C113" t="s">
         <v>359</v>
       </c>
-      <c r="B113" t="s">
+      <c r="D113" t="s">
         <v>360</v>
-      </c>
-      <c r="C113" t="s">
-        <v>361</v>
-      </c>
-      <c r="D113" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>361</v>
+      </c>
+      <c r="B114" t="s">
+        <v>362</v>
+      </c>
+      <c r="C114" t="s">
         <v>363</v>
-      </c>
-      <c r="B114" t="s">
-        <v>364</v>
-      </c>
-      <c r="C114" t="s">
-        <v>365</v>
       </c>
       <c r="D114" t="s">
         <v>41</v>
@@ -4287,111 +4291,111 @@
     </row>
     <row r="115" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>364</v>
+      </c>
+      <c r="B115" t="s">
+        <v>365</v>
+      </c>
+      <c r="C115" t="s">
         <v>366</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
         <v>367</v>
-      </c>
-      <c r="C115" t="s">
-        <v>368</v>
-      </c>
-      <c r="D115" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>368</v>
+      </c>
+      <c r="B116" t="s">
+        <v>369</v>
+      </c>
+      <c r="C116" t="s">
         <v>370</v>
       </c>
-      <c r="B116" t="s">
-        <v>371</v>
-      </c>
-      <c r="C116" t="s">
-        <v>372</v>
-      </c>
       <c r="D116" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>371</v>
+      </c>
+      <c r="B117" t="s">
+        <v>372</v>
+      </c>
+      <c r="C117" t="s">
         <v>373</v>
       </c>
-      <c r="B117" t="s">
-        <v>374</v>
-      </c>
-      <c r="C117" t="s">
-        <v>375</v>
-      </c>
       <c r="D117" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>374</v>
+      </c>
+      <c r="B118" t="s">
+        <v>375</v>
+      </c>
+      <c r="C118" t="s">
         <v>376</v>
       </c>
-      <c r="B118" t="s">
-        <v>377</v>
-      </c>
-      <c r="C118" t="s">
-        <v>378</v>
-      </c>
       <c r="D118" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>377</v>
+      </c>
+      <c r="B119" t="s">
+        <v>378</v>
+      </c>
+      <c r="C119" t="s">
         <v>379</v>
       </c>
-      <c r="B119" t="s">
-        <v>380</v>
-      </c>
-      <c r="C119" t="s">
-        <v>381</v>
-      </c>
       <c r="D119" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>380</v>
+      </c>
+      <c r="B120" t="s">
+        <v>381</v>
+      </c>
+      <c r="C120" t="s">
         <v>382</v>
       </c>
-      <c r="B120" t="s">
-        <v>383</v>
-      </c>
-      <c r="C120" t="s">
-        <v>384</v>
-      </c>
       <c r="D120" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>383</v>
+      </c>
+      <c r="B121" t="s">
+        <v>384</v>
+      </c>
+      <c r="C121" t="s">
         <v>385</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
         <v>386</v>
-      </c>
-      <c r="C121" t="s">
-        <v>387</v>
-      </c>
-      <c r="D121" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>387</v>
+      </c>
+      <c r="B122" t="s">
+        <v>388</v>
+      </c>
+      <c r="C122" t="s">
         <v>389</v>
-      </c>
-      <c r="B122" t="s">
-        <v>390</v>
-      </c>
-      <c r="C122" t="s">
-        <v>391</v>
       </c>
       <c r="D122" t="s">
         <v>22</v>
@@ -4399,13 +4403,13 @@
     </row>
     <row r="123" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>390</v>
+      </c>
+      <c r="B123" t="s">
+        <v>391</v>
+      </c>
+      <c r="C123" t="s">
         <v>392</v>
-      </c>
-      <c r="B123" t="s">
-        <v>393</v>
-      </c>
-      <c r="C123" t="s">
-        <v>394</v>
       </c>
       <c r="D123" t="s">
         <v>26</v>
@@ -4413,13 +4417,13 @@
     </row>
     <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>393</v>
+      </c>
+      <c r="B124" t="s">
+        <v>394</v>
+      </c>
+      <c r="C124" t="s">
         <v>395</v>
-      </c>
-      <c r="B124" t="s">
-        <v>396</v>
-      </c>
-      <c r="C124" t="s">
-        <v>397</v>
       </c>
       <c r="D124" t="s">
         <v>57</v>
@@ -4427,13 +4431,13 @@
     </row>
     <row r="125" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>396</v>
+      </c>
+      <c r="B125" t="s">
+        <v>397</v>
+      </c>
+      <c r="C125" t="s">
         <v>398</v>
-      </c>
-      <c r="B125" t="s">
-        <v>399</v>
-      </c>
-      <c r="C125" t="s">
-        <v>400</v>
       </c>
       <c r="D125" t="s">
         <v>57</v>
@@ -4441,13 +4445,13 @@
     </row>
     <row r="126" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>399</v>
+      </c>
+      <c r="B126" t="s">
+        <v>400</v>
+      </c>
+      <c r="C126" t="s">
         <v>401</v>
-      </c>
-      <c r="B126" t="s">
-        <v>402</v>
-      </c>
-      <c r="C126" t="s">
-        <v>403</v>
       </c>
       <c r="D126" t="s">
         <v>37</v>
@@ -4455,13 +4459,13 @@
     </row>
     <row r="127" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>402</v>
+      </c>
+      <c r="B127" t="s">
+        <v>403</v>
+      </c>
+      <c r="C127" t="s">
         <v>404</v>
-      </c>
-      <c r="B127" t="s">
-        <v>405</v>
-      </c>
-      <c r="C127" t="s">
-        <v>406</v>
       </c>
       <c r="D127" t="s">
         <v>37</v>
@@ -4469,41 +4473,41 @@
     </row>
     <row r="128" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>405</v>
+      </c>
+      <c r="B128" t="s">
+        <v>406</v>
+      </c>
+      <c r="C128" t="s">
         <v>407</v>
       </c>
-      <c r="B128" t="s">
-        <v>408</v>
-      </c>
-      <c r="C128" t="s">
-        <v>409</v>
-      </c>
       <c r="D128" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>408</v>
+      </c>
+      <c r="B129" t="s">
+        <v>409</v>
+      </c>
+      <c r="C129" t="s">
         <v>410</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D129" t="s">
         <v>411</v>
-      </c>
-      <c r="C129" t="s">
-        <v>412</v>
-      </c>
-      <c r="D129" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>412</v>
+      </c>
+      <c r="B130" t="s">
+        <v>413</v>
+      </c>
+      <c r="C130" t="s">
         <v>414</v>
-      </c>
-      <c r="B130" t="s">
-        <v>415</v>
-      </c>
-      <c r="C130" t="s">
-        <v>416</v>
       </c>
       <c r="D130" t="s">
         <v>57</v>
@@ -4511,13 +4515,13 @@
     </row>
     <row r="131" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>415</v>
+      </c>
+      <c r="B131" t="s">
+        <v>416</v>
+      </c>
+      <c r="C131" t="s">
         <v>417</v>
-      </c>
-      <c r="B131" t="s">
-        <v>418</v>
-      </c>
-      <c r="C131" t="s">
-        <v>419</v>
       </c>
       <c r="D131" t="s">
         <v>26</v>
@@ -4525,13 +4529,13 @@
     </row>
     <row r="132" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>418</v>
+      </c>
+      <c r="B132" t="s">
+        <v>419</v>
+      </c>
+      <c r="C132" t="s">
         <v>420</v>
-      </c>
-      <c r="B132" t="s">
-        <v>421</v>
-      </c>
-      <c r="C132" t="s">
-        <v>422</v>
       </c>
       <c r="D132" t="s">
         <v>26</v>
@@ -4539,55 +4543,55 @@
     </row>
     <row r="133" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>421</v>
+      </c>
+      <c r="B133" t="s">
+        <v>422</v>
+      </c>
+      <c r="C133" t="s">
         <v>423</v>
       </c>
-      <c r="B133" t="s">
-        <v>424</v>
-      </c>
-      <c r="C133" t="s">
-        <v>425</v>
-      </c>
       <c r="D133" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>424</v>
+      </c>
+      <c r="B134" t="s">
+        <v>425</v>
+      </c>
+      <c r="C134" t="s">
         <v>426</v>
       </c>
-      <c r="B134" t="s">
-        <v>427</v>
-      </c>
-      <c r="C134" t="s">
-        <v>428</v>
-      </c>
       <c r="D134" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>427</v>
+      </c>
+      <c r="B135" t="s">
+        <v>428</v>
+      </c>
+      <c r="C135" t="s">
         <v>429</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
         <v>430</v>
-      </c>
-      <c r="C135" t="s">
-        <v>431</v>
-      </c>
-      <c r="D135" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>431</v>
+      </c>
+      <c r="B136" t="s">
+        <v>432</v>
+      </c>
+      <c r="C136" t="s">
         <v>433</v>
-      </c>
-      <c r="B136" t="s">
-        <v>434</v>
-      </c>
-      <c r="C136" t="s">
-        <v>435</v>
       </c>
       <c r="D136" t="s">
         <v>37</v>
@@ -4595,27 +4599,27 @@
     </row>
     <row r="137" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>434</v>
+      </c>
+      <c r="B137" t="s">
+        <v>435</v>
+      </c>
+      <c r="C137" t="s">
         <v>436</v>
       </c>
-      <c r="B137" t="s">
-        <v>437</v>
-      </c>
-      <c r="C137" t="s">
-        <v>438</v>
-      </c>
       <c r="D137" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>437</v>
+      </c>
+      <c r="B138" t="s">
+        <v>438</v>
+      </c>
+      <c r="C138" t="s">
         <v>439</v>
-      </c>
-      <c r="B138" t="s">
-        <v>440</v>
-      </c>
-      <c r="C138" t="s">
-        <v>441</v>
       </c>
       <c r="D138" t="s">
         <v>77</v>
@@ -4623,13 +4627,13 @@
     </row>
     <row r="139" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>440</v>
+      </c>
+      <c r="B139" t="s">
+        <v>441</v>
+      </c>
+      <c r="C139" t="s">
         <v>442</v>
-      </c>
-      <c r="B139" t="s">
-        <v>443</v>
-      </c>
-      <c r="C139" t="s">
-        <v>444</v>
       </c>
       <c r="D139" t="s">
         <v>77</v>
@@ -4637,13 +4641,13 @@
     </row>
     <row r="140" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>443</v>
+      </c>
+      <c r="B140" t="s">
+        <v>444</v>
+      </c>
+      <c r="C140" t="s">
         <v>445</v>
-      </c>
-      <c r="B140" t="s">
-        <v>446</v>
-      </c>
-      <c r="C140" t="s">
-        <v>447</v>
       </c>
       <c r="D140" t="s">
         <v>41</v>
@@ -4651,13 +4655,13 @@
     </row>
     <row r="141" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>446</v>
+      </c>
+      <c r="B141" t="s">
+        <v>447</v>
+      </c>
+      <c r="C141" t="s">
         <v>448</v>
-      </c>
-      <c r="B141" t="s">
-        <v>449</v>
-      </c>
-      <c r="C141" t="s">
-        <v>450</v>
       </c>
       <c r="D141" t="s">
         <v>41</v>
@@ -4665,13 +4669,13 @@
     </row>
     <row r="142" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>449</v>
+      </c>
+      <c r="B142" t="s">
+        <v>450</v>
+      </c>
+      <c r="C142" t="s">
         <v>451</v>
-      </c>
-      <c r="B142" t="s">
-        <v>452</v>
-      </c>
-      <c r="C142" t="s">
-        <v>453</v>
       </c>
       <c r="D142" t="s">
         <v>41</v>
@@ -4679,13 +4683,13 @@
     </row>
     <row r="143" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>452</v>
+      </c>
+      <c r="B143" t="s">
+        <v>453</v>
+      </c>
+      <c r="C143" t="s">
         <v>454</v>
-      </c>
-      <c r="B143" t="s">
-        <v>455</v>
-      </c>
-      <c r="C143" t="s">
-        <v>456</v>
       </c>
       <c r="D143" t="s">
         <v>15</v>
@@ -4693,55 +4697,55 @@
     </row>
     <row r="144" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>455</v>
+      </c>
+      <c r="B144" t="s">
+        <v>456</v>
+      </c>
+      <c r="C144" t="s">
         <v>457</v>
       </c>
-      <c r="B144" t="s">
-        <v>458</v>
-      </c>
-      <c r="C144" t="s">
-        <v>459</v>
-      </c>
       <c r="D144" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>458</v>
+      </c>
+      <c r="B145" t="s">
+        <v>459</v>
+      </c>
+      <c r="C145" t="s">
         <v>460</v>
       </c>
-      <c r="B145" t="s">
-        <v>461</v>
-      </c>
-      <c r="C145" t="s">
-        <v>462</v>
-      </c>
       <c r="D145" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>461</v>
+      </c>
+      <c r="B146" t="s">
+        <v>462</v>
+      </c>
+      <c r="C146" t="s">
         <v>463</v>
       </c>
-      <c r="B146" t="s">
+      <c r="D146" t="s">
         <v>464</v>
-      </c>
-      <c r="C146" t="s">
-        <v>465</v>
-      </c>
-      <c r="D146" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>465</v>
+      </c>
+      <c r="B147" t="s">
+        <v>466</v>
+      </c>
+      <c r="C147" t="s">
         <v>467</v>
-      </c>
-      <c r="B147" t="s">
-        <v>468</v>
-      </c>
-      <c r="C147" t="s">
-        <v>469</v>
       </c>
       <c r="D147" t="s">
         <v>77</v>
@@ -4749,27 +4753,27 @@
     </row>
     <row r="148" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>468</v>
+      </c>
+      <c r="B148" t="s">
+        <v>469</v>
+      </c>
+      <c r="C148" t="s">
         <v>470</v>
       </c>
-      <c r="B148" t="s">
+      <c r="D148" t="s">
         <v>471</v>
-      </c>
-      <c r="C148" t="s">
-        <v>472</v>
-      </c>
-      <c r="D148" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>472</v>
+      </c>
+      <c r="B149" t="s">
+        <v>473</v>
+      </c>
+      <c r="C149" t="s">
         <v>474</v>
-      </c>
-      <c r="B149" t="s">
-        <v>475</v>
-      </c>
-      <c r="C149" t="s">
-        <v>476</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
@@ -4777,27 +4781,27 @@
     </row>
     <row r="150" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>475</v>
+      </c>
+      <c r="B150" t="s">
+        <v>476</v>
+      </c>
+      <c r="C150" t="s">
         <v>477</v>
       </c>
-      <c r="B150" t="s">
-        <v>478</v>
-      </c>
-      <c r="C150" t="s">
-        <v>479</v>
-      </c>
       <c r="D150" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>478</v>
+      </c>
+      <c r="B151" t="s">
+        <v>479</v>
+      </c>
+      <c r="C151" t="s">
         <v>480</v>
-      </c>
-      <c r="B151" t="s">
-        <v>481</v>
-      </c>
-      <c r="C151" t="s">
-        <v>482</v>
       </c>
       <c r="D151" t="s">
         <v>93</v>
@@ -4805,13 +4809,13 @@
     </row>
     <row r="152" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>481</v>
+      </c>
+      <c r="B152" t="s">
+        <v>482</v>
+      </c>
+      <c r="C152" t="s">
         <v>483</v>
-      </c>
-      <c r="B152" t="s">
-        <v>484</v>
-      </c>
-      <c r="C152" t="s">
-        <v>485</v>
       </c>
       <c r="D152" t="s">
         <v>37</v>
@@ -4819,27 +4823,27 @@
     </row>
     <row r="153" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>484</v>
+      </c>
+      <c r="B153" t="s">
+        <v>485</v>
+      </c>
+      <c r="C153" t="s">
         <v>486</v>
       </c>
-      <c r="B153" t="s">
-        <v>487</v>
-      </c>
-      <c r="C153" t="s">
-        <v>488</v>
-      </c>
       <c r="D153" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>487</v>
+      </c>
+      <c r="B154" t="s">
+        <v>488</v>
+      </c>
+      <c r="C154" t="s">
         <v>489</v>
-      </c>
-      <c r="B154" t="s">
-        <v>490</v>
-      </c>
-      <c r="C154" t="s">
-        <v>491</v>
       </c>
       <c r="D154" t="s">
         <v>57</v>
@@ -4847,13 +4851,13 @@
     </row>
     <row r="155" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>490</v>
+      </c>
+      <c r="B155" t="s">
+        <v>491</v>
+      </c>
+      <c r="C155" t="s">
         <v>492</v>
-      </c>
-      <c r="B155" t="s">
-        <v>493</v>
-      </c>
-      <c r="C155" t="s">
-        <v>494</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
@@ -4861,13 +4865,13 @@
     </row>
     <row r="156" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>493</v>
+      </c>
+      <c r="B156" t="s">
+        <v>494</v>
+      </c>
+      <c r="C156" t="s">
         <v>495</v>
-      </c>
-      <c r="B156" t="s">
-        <v>496</v>
-      </c>
-      <c r="C156" t="s">
-        <v>497</v>
       </c>
       <c r="D156" t="s">
         <v>77</v>
@@ -4875,41 +4879,41 @@
     </row>
     <row r="157" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>496</v>
+      </c>
+      <c r="B157" t="s">
+        <v>497</v>
+      </c>
+      <c r="C157" t="s">
         <v>498</v>
       </c>
-      <c r="B157" t="s">
-        <v>499</v>
-      </c>
-      <c r="C157" t="s">
-        <v>500</v>
-      </c>
       <c r="D157" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>499</v>
+      </c>
+      <c r="B158" t="s">
+        <v>500</v>
+      </c>
+      <c r="C158" t="s">
         <v>501</v>
       </c>
-      <c r="B158" t="s">
-        <v>502</v>
-      </c>
-      <c r="C158" t="s">
-        <v>503</v>
-      </c>
       <c r="D158" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>502</v>
+      </c>
+      <c r="B159" t="s">
+        <v>503</v>
+      </c>
+      <c r="C159" t="s">
         <v>504</v>
-      </c>
-      <c r="B159" t="s">
-        <v>505</v>
-      </c>
-      <c r="C159" t="s">
-        <v>506</v>
       </c>
       <c r="D159" t="s">
         <v>37</v>
@@ -4917,13 +4921,13 @@
     </row>
     <row r="160" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>505</v>
+      </c>
+      <c r="B160" t="s">
+        <v>506</v>
+      </c>
+      <c r="C160" t="s">
         <v>507</v>
-      </c>
-      <c r="B160" t="s">
-        <v>508</v>
-      </c>
-      <c r="C160" t="s">
-        <v>509</v>
       </c>
       <c r="D160" t="s">
         <v>15</v>
@@ -4931,13 +4935,13 @@
     </row>
     <row r="161" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>508</v>
+      </c>
+      <c r="B161" t="s">
+        <v>509</v>
+      </c>
+      <c r="C161" t="s">
         <v>510</v>
-      </c>
-      <c r="B161" t="s">
-        <v>511</v>
-      </c>
-      <c r="C161" t="s">
-        <v>512</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
@@ -4945,27 +4949,27 @@
     </row>
     <row r="162" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>511</v>
+      </c>
+      <c r="B162" t="s">
+        <v>512</v>
+      </c>
+      <c r="C162" t="s">
         <v>513</v>
       </c>
-      <c r="B162" t="s">
-        <v>514</v>
-      </c>
-      <c r="C162" t="s">
-        <v>515</v>
-      </c>
       <c r="D162" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>514</v>
+      </c>
+      <c r="B163" t="s">
+        <v>515</v>
+      </c>
+      <c r="C163" t="s">
         <v>516</v>
-      </c>
-      <c r="B163" t="s">
-        <v>517</v>
-      </c>
-      <c r="C163" t="s">
-        <v>518</v>
       </c>
       <c r="D163" t="s">
         <v>77</v>
@@ -4973,13 +4977,13 @@
     </row>
     <row r="164" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>517</v>
+      </c>
+      <c r="B164" t="s">
+        <v>518</v>
+      </c>
+      <c r="C164" t="s">
         <v>519</v>
-      </c>
-      <c r="B164" t="s">
-        <v>520</v>
-      </c>
-      <c r="C164" t="s">
-        <v>521</v>
       </c>
       <c r="D164" t="s">
         <v>77</v>
@@ -4987,13 +4991,13 @@
     </row>
     <row r="165" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>520</v>
+      </c>
+      <c r="B165" t="s">
+        <v>521</v>
+      </c>
+      <c r="C165" t="s">
         <v>522</v>
-      </c>
-      <c r="B165" t="s">
-        <v>523</v>
-      </c>
-      <c r="C165" t="s">
-        <v>524</v>
       </c>
       <c r="D165" t="s">
         <v>15</v>
@@ -5001,13 +5005,13 @@
     </row>
     <row r="166" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>523</v>
+      </c>
+      <c r="B166" t="s">
+        <v>524</v>
+      </c>
+      <c r="C166" t="s">
         <v>525</v>
-      </c>
-      <c r="B166" t="s">
-        <v>526</v>
-      </c>
-      <c r="C166" t="s">
-        <v>527</v>
       </c>
       <c r="D166" t="s">
         <v>15</v>
@@ -5015,13 +5019,13 @@
     </row>
     <row r="167" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>526</v>
+      </c>
+      <c r="B167" t="s">
+        <v>527</v>
+      </c>
+      <c r="C167" t="s">
         <v>528</v>
-      </c>
-      <c r="B167" t="s">
-        <v>529</v>
-      </c>
-      <c r="C167" t="s">
-        <v>530</v>
       </c>
       <c r="D167" t="s">
         <v>15</v>
@@ -5029,13 +5033,13 @@
     </row>
     <row r="168" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>529</v>
+      </c>
+      <c r="B168" t="s">
+        <v>530</v>
+      </c>
+      <c r="C168" t="s">
         <v>531</v>
-      </c>
-      <c r="B168" t="s">
-        <v>532</v>
-      </c>
-      <c r="C168" t="s">
-        <v>533</v>
       </c>
       <c r="D168" t="s">
         <v>37</v>
@@ -5043,13 +5047,13 @@
     </row>
     <row r="169" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>532</v>
+      </c>
+      <c r="B169" t="s">
+        <v>533</v>
+      </c>
+      <c r="C169" t="s">
         <v>534</v>
-      </c>
-      <c r="B169" t="s">
-        <v>535</v>
-      </c>
-      <c r="C169" t="s">
-        <v>536</v>
       </c>
       <c r="D169" t="s">
         <v>26</v>
@@ -5057,13 +5061,13 @@
     </row>
     <row r="170" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>535</v>
+      </c>
+      <c r="B170" t="s">
+        <v>536</v>
+      </c>
+      <c r="C170" t="s">
         <v>537</v>
-      </c>
-      <c r="B170" t="s">
-        <v>538</v>
-      </c>
-      <c r="C170" t="s">
-        <v>539</v>
       </c>
       <c r="D170" t="s">
         <v>37</v>
@@ -5071,13 +5075,13 @@
     </row>
     <row r="171" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>538</v>
+      </c>
+      <c r="B171" t="s">
+        <v>539</v>
+      </c>
+      <c r="C171" t="s">
         <v>540</v>
-      </c>
-      <c r="B171" t="s">
-        <v>541</v>
-      </c>
-      <c r="C171" t="s">
-        <v>542</v>
       </c>
       <c r="D171" t="s">
         <v>77</v>
@@ -5085,13 +5089,13 @@
     </row>
     <row r="172" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>541</v>
+      </c>
+      <c r="B172" t="s">
+        <v>542</v>
+      </c>
+      <c r="C172" t="s">
         <v>543</v>
-      </c>
-      <c r="B172" t="s">
-        <v>544</v>
-      </c>
-      <c r="C172" t="s">
-        <v>545</v>
       </c>
       <c r="D172" t="s">
         <v>77</v>
@@ -5099,13 +5103,13 @@
     </row>
     <row r="173" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>544</v>
+      </c>
+      <c r="B173" t="s">
+        <v>545</v>
+      </c>
+      <c r="C173" t="s">
         <v>546</v>
-      </c>
-      <c r="B173" t="s">
-        <v>547</v>
-      </c>
-      <c r="C173" t="s">
-        <v>548</v>
       </c>
       <c r="D173" t="s">
         <v>15</v>
@@ -5113,13 +5117,13 @@
     </row>
     <row r="174" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>547</v>
+      </c>
+      <c r="B174" t="s">
+        <v>548</v>
+      </c>
+      <c r="C174" t="s">
         <v>549</v>
-      </c>
-      <c r="B174" t="s">
-        <v>550</v>
-      </c>
-      <c r="C174" t="s">
-        <v>551</v>
       </c>
       <c r="D174" t="s">
         <v>15</v>
@@ -5127,13 +5131,13 @@
     </row>
     <row r="175" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>550</v>
+      </c>
+      <c r="B175" t="s">
+        <v>551</v>
+      </c>
+      <c r="C175" t="s">
         <v>552</v>
-      </c>
-      <c r="B175" t="s">
-        <v>553</v>
-      </c>
-      <c r="C175" t="s">
-        <v>554</v>
       </c>
       <c r="D175" t="s">
         <v>15</v>
@@ -5141,13 +5145,13 @@
     </row>
     <row r="176" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>553</v>
+      </c>
+      <c r="B176" t="s">
+        <v>554</v>
+      </c>
+      <c r="C176" t="s">
         <v>555</v>
-      </c>
-      <c r="B176" t="s">
-        <v>556</v>
-      </c>
-      <c r="C176" t="s">
-        <v>557</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
@@ -5155,13 +5159,13 @@
     </row>
     <row r="177" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>556</v>
+      </c>
+      <c r="B177" t="s">
+        <v>557</v>
+      </c>
+      <c r="C177" t="s">
         <v>558</v>
-      </c>
-      <c r="B177" t="s">
-        <v>559</v>
-      </c>
-      <c r="C177" t="s">
-        <v>560</v>
       </c>
       <c r="D177" t="s">
         <v>15</v>
@@ -5169,13 +5173,13 @@
     </row>
     <row r="178" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>559</v>
+      </c>
+      <c r="B178" t="s">
+        <v>560</v>
+      </c>
+      <c r="C178" t="s">
         <v>561</v>
-      </c>
-      <c r="B178" t="s">
-        <v>562</v>
-      </c>
-      <c r="C178" t="s">
-        <v>563</v>
       </c>
       <c r="D178" t="s">
         <v>37</v>
@@ -5183,55 +5187,55 @@
     </row>
     <row r="179" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>562</v>
+      </c>
+      <c r="B179" t="s">
+        <v>563</v>
+      </c>
+      <c r="C179" t="s">
         <v>564</v>
       </c>
-      <c r="B179" t="s">
-        <v>565</v>
-      </c>
-      <c r="C179" t="s">
-        <v>566</v>
-      </c>
       <c r="D179" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>565</v>
+      </c>
+      <c r="B180" t="s">
+        <v>566</v>
+      </c>
+      <c r="C180" t="s">
         <v>567</v>
       </c>
-      <c r="B180" t="s">
-        <v>568</v>
-      </c>
-      <c r="C180" t="s">
-        <v>569</v>
-      </c>
       <c r="D180" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>568</v>
+      </c>
+      <c r="B181" t="s">
+        <v>569</v>
+      </c>
+      <c r="C181" t="s">
         <v>570</v>
       </c>
-      <c r="B181" t="s">
-        <v>571</v>
-      </c>
-      <c r="C181" t="s">
-        <v>572</v>
-      </c>
       <c r="D181" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>571</v>
+      </c>
+      <c r="B182" t="s">
+        <v>572</v>
+      </c>
+      <c r="C182" t="s">
         <v>573</v>
-      </c>
-      <c r="B182" t="s">
-        <v>574</v>
-      </c>
-      <c r="C182" t="s">
-        <v>575</v>
       </c>
       <c r="D182" t="s">
         <v>37</v>
@@ -5239,13 +5243,13 @@
     </row>
     <row r="183" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
+        <v>574</v>
+      </c>
+      <c r="B183" t="s">
+        <v>575</v>
+      </c>
+      <c r="C183" t="s">
         <v>576</v>
-      </c>
-      <c r="B183" t="s">
-        <v>577</v>
-      </c>
-      <c r="C183" t="s">
-        <v>578</v>
       </c>
       <c r="D183" t="s">
         <v>41</v>
@@ -5253,13 +5257,13 @@
     </row>
     <row r="184" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
+        <v>577</v>
+      </c>
+      <c r="B184" t="s">
+        <v>578</v>
+      </c>
+      <c r="C184" t="s">
         <v>579</v>
-      </c>
-      <c r="B184" t="s">
-        <v>580</v>
-      </c>
-      <c r="C184" t="s">
-        <v>581</v>
       </c>
       <c r="D184" t="s">
         <v>77</v>
@@ -5267,13 +5271,13 @@
     </row>
     <row r="185" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
+        <v>580</v>
+      </c>
+      <c r="B185" t="s">
+        <v>581</v>
+      </c>
+      <c r="C185" t="s">
         <v>582</v>
-      </c>
-      <c r="B185" t="s">
-        <v>583</v>
-      </c>
-      <c r="C185" t="s">
-        <v>584</v>
       </c>
       <c r="D185" t="s">
         <v>77</v>
@@ -5281,13 +5285,13 @@
     </row>
     <row r="186" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
+        <v>583</v>
+      </c>
+      <c r="B186" t="s">
+        <v>584</v>
+      </c>
+      <c r="C186" t="s">
         <v>585</v>
-      </c>
-      <c r="B186" t="s">
-        <v>586</v>
-      </c>
-      <c r="C186" t="s">
-        <v>587</v>
       </c>
       <c r="D186" t="s">
         <v>41</v>
@@ -5295,13 +5299,13 @@
     </row>
     <row r="187" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
+        <v>586</v>
+      </c>
+      <c r="B187" t="s">
+        <v>587</v>
+      </c>
+      <c r="C187" t="s">
         <v>588</v>
-      </c>
-      <c r="B187" t="s">
-        <v>589</v>
-      </c>
-      <c r="C187" t="s">
-        <v>590</v>
       </c>
       <c r="D187" t="s">
         <v>15</v>
@@ -5309,13 +5313,13 @@
     </row>
     <row r="188" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
+        <v>589</v>
+      </c>
+      <c r="B188" t="s">
+        <v>590</v>
+      </c>
+      <c r="C188" t="s">
         <v>591</v>
-      </c>
-      <c r="B188" t="s">
-        <v>592</v>
-      </c>
-      <c r="C188" t="s">
-        <v>593</v>
       </c>
       <c r="D188" t="s">
         <v>37</v>
@@ -5323,13 +5327,13 @@
     </row>
     <row r="189" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
+        <v>592</v>
+      </c>
+      <c r="B189" t="s">
+        <v>593</v>
+      </c>
+      <c r="C189" t="s">
         <v>594</v>
-      </c>
-      <c r="B189" t="s">
-        <v>595</v>
-      </c>
-      <c r="C189" t="s">
-        <v>596</v>
       </c>
       <c r="D189" t="s">
         <v>11</v>
@@ -5337,13 +5341,13 @@
     </row>
     <row r="190" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
+        <v>595</v>
+      </c>
+      <c r="B190" t="s">
+        <v>596</v>
+      </c>
+      <c r="C190" t="s">
         <v>597</v>
-      </c>
-      <c r="B190" t="s">
-        <v>598</v>
-      </c>
-      <c r="C190" t="s">
-        <v>599</v>
       </c>
       <c r="D190" t="s">
         <v>57</v>
@@ -5351,41 +5355,41 @@
     </row>
     <row r="191" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
+        <v>598</v>
+      </c>
+      <c r="B191" t="s">
+        <v>599</v>
+      </c>
+      <c r="C191" t="s">
         <v>600</v>
       </c>
-      <c r="B191" t="s">
-        <v>601</v>
-      </c>
-      <c r="C191" t="s">
-        <v>602</v>
-      </c>
       <c r="D191" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
+        <v>601</v>
+      </c>
+      <c r="B192" t="s">
+        <v>602</v>
+      </c>
+      <c r="C192" t="s">
         <v>603</v>
       </c>
-      <c r="B192" t="s">
-        <v>604</v>
-      </c>
-      <c r="C192" t="s">
-        <v>605</v>
-      </c>
       <c r="D192" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
+        <v>604</v>
+      </c>
+      <c r="B193" t="s">
+        <v>605</v>
+      </c>
+      <c r="C193" t="s">
         <v>606</v>
-      </c>
-      <c r="B193" t="s">
-        <v>607</v>
-      </c>
-      <c r="C193" t="s">
-        <v>608</v>
       </c>
       <c r="D193" t="s">
         <v>15</v>
@@ -5393,27 +5397,27 @@
     </row>
     <row r="194" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
+        <v>607</v>
+      </c>
+      <c r="B194" t="s">
+        <v>608</v>
+      </c>
+      <c r="C194" t="s">
         <v>609</v>
       </c>
-      <c r="B194" t="s">
-        <v>610</v>
-      </c>
-      <c r="C194" t="s">
-        <v>611</v>
-      </c>
       <c r="D194" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
+        <v>610</v>
+      </c>
+      <c r="B195" t="s">
+        <v>611</v>
+      </c>
+      <c r="C195" t="s">
         <v>612</v>
-      </c>
-      <c r="B195" t="s">
-        <v>613</v>
-      </c>
-      <c r="C195" t="s">
-        <v>614</v>
       </c>
       <c r="D195" t="s">
         <v>41</v>
@@ -5421,13 +5425,13 @@
     </row>
     <row r="196" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
+        <v>613</v>
+      </c>
+      <c r="B196" t="s">
+        <v>614</v>
+      </c>
+      <c r="C196" t="s">
         <v>615</v>
-      </c>
-      <c r="B196" t="s">
-        <v>616</v>
-      </c>
-      <c r="C196" t="s">
-        <v>617</v>
       </c>
       <c r="D196" t="s">
         <v>41</v>
@@ -5435,13 +5439,13 @@
     </row>
     <row r="197" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
+        <v>616</v>
+      </c>
+      <c r="B197" t="s">
+        <v>617</v>
+      </c>
+      <c r="C197" t="s">
         <v>618</v>
-      </c>
-      <c r="B197" t="s">
-        <v>619</v>
-      </c>
-      <c r="C197" t="s">
-        <v>620</v>
       </c>
       <c r="D197" t="s">
         <v>41</v>
@@ -5449,139 +5453,139 @@
     </row>
     <row r="198" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
+        <v>619</v>
+      </c>
+      <c r="B198" t="s">
+        <v>620</v>
+      </c>
+      <c r="C198" t="s">
         <v>621</v>
       </c>
-      <c r="B198" t="s">
-        <v>622</v>
-      </c>
-      <c r="C198" t="s">
-        <v>623</v>
-      </c>
       <c r="D198" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
+        <v>622</v>
+      </c>
+      <c r="B199" t="s">
+        <v>623</v>
+      </c>
+      <c r="C199" t="s">
         <v>624</v>
       </c>
-      <c r="B199" t="s">
+      <c r="D199" t="s">
         <v>625</v>
-      </c>
-      <c r="C199" t="s">
-        <v>626</v>
-      </c>
-      <c r="D199" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>626</v>
+      </c>
+      <c r="B200" t="s">
+        <v>627</v>
+      </c>
+      <c r="C200" t="s">
         <v>628</v>
       </c>
-      <c r="B200" t="s">
-        <v>629</v>
-      </c>
-      <c r="C200" t="s">
-        <v>630</v>
-      </c>
       <c r="D200" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>629</v>
+      </c>
+      <c r="B201" t="s">
+        <v>630</v>
+      </c>
+      <c r="C201" t="s">
         <v>631</v>
       </c>
-      <c r="B201" t="s">
-        <v>632</v>
-      </c>
-      <c r="C201" t="s">
-        <v>633</v>
-      </c>
       <c r="D201" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>632</v>
+      </c>
+      <c r="B202" t="s">
+        <v>633</v>
+      </c>
+      <c r="C202" t="s">
         <v>634</v>
       </c>
-      <c r="B202" t="s">
-        <v>635</v>
-      </c>
-      <c r="C202" t="s">
-        <v>636</v>
-      </c>
       <c r="D202" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>635</v>
+      </c>
+      <c r="B203" t="s">
+        <v>636</v>
+      </c>
+      <c r="C203" t="s">
         <v>637</v>
       </c>
-      <c r="B203" t="s">
-        <v>638</v>
-      </c>
-      <c r="C203" t="s">
-        <v>639</v>
-      </c>
       <c r="D203" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>638</v>
+      </c>
+      <c r="B204" t="s">
+        <v>639</v>
+      </c>
+      <c r="C204" t="s">
         <v>640</v>
       </c>
-      <c r="B204" t="s">
-        <v>641</v>
-      </c>
-      <c r="C204" t="s">
-        <v>642</v>
-      </c>
       <c r="D204" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>641</v>
+      </c>
+      <c r="B205" t="s">
+        <v>642</v>
+      </c>
+      <c r="C205" t="s">
         <v>643</v>
       </c>
-      <c r="B205" t="s">
-        <v>644</v>
-      </c>
-      <c r="C205" t="s">
-        <v>645</v>
-      </c>
       <c r="D205" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>644</v>
+      </c>
+      <c r="B206" t="s">
+        <v>645</v>
+      </c>
+      <c r="C206" t="s">
         <v>646</v>
       </c>
-      <c r="B206" t="s">
-        <v>647</v>
-      </c>
-      <c r="C206" t="s">
-        <v>648</v>
-      </c>
       <c r="D206" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>647</v>
+      </c>
+      <c r="B207" t="s">
+        <v>648</v>
+      </c>
+      <c r="C207" t="s">
         <v>649</v>
-      </c>
-      <c r="B207" t="s">
-        <v>650</v>
-      </c>
-      <c r="C207" t="s">
-        <v>651</v>
       </c>
       <c r="D207" t="s">
         <v>41</v>
@@ -5589,13 +5593,13 @@
     </row>
     <row r="208" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>650</v>
+      </c>
+      <c r="B208" t="s">
+        <v>651</v>
+      </c>
+      <c r="C208" t="s">
         <v>652</v>
-      </c>
-      <c r="B208" t="s">
-        <v>653</v>
-      </c>
-      <c r="C208" t="s">
-        <v>654</v>
       </c>
       <c r="D208" t="s">
         <v>41</v>
@@ -5603,13 +5607,13 @@
     </row>
     <row r="209" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>653</v>
+      </c>
+      <c r="B209" t="s">
+        <v>654</v>
+      </c>
+      <c r="C209" t="s">
         <v>655</v>
-      </c>
-      <c r="B209" t="s">
-        <v>656</v>
-      </c>
-      <c r="C209" t="s">
-        <v>657</v>
       </c>
       <c r="D209" t="s">
         <v>41</v>
@@ -5617,13 +5621,13 @@
     </row>
     <row r="210" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>656</v>
+      </c>
+      <c r="B210" t="s">
+        <v>657</v>
+      </c>
+      <c r="C210" t="s">
         <v>658</v>
-      </c>
-      <c r="B210" t="s">
-        <v>659</v>
-      </c>
-      <c r="C210" t="s">
-        <v>660</v>
       </c>
       <c r="D210" t="s">
         <v>41</v>
@@ -5631,13 +5635,13 @@
     </row>
     <row r="211" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>659</v>
+      </c>
+      <c r="B211" t="s">
+        <v>660</v>
+      </c>
+      <c r="C211" t="s">
         <v>661</v>
-      </c>
-      <c r="B211" t="s">
-        <v>662</v>
-      </c>
-      <c r="C211" t="s">
-        <v>663</v>
       </c>
       <c r="D211" t="s">
         <v>41</v>
@@ -5645,41 +5649,41 @@
     </row>
     <row r="212" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>662</v>
+      </c>
+      <c r="B212" t="s">
+        <v>663</v>
+      </c>
+      <c r="C212" t="s">
         <v>664</v>
       </c>
-      <c r="B212" t="s">
+      <c r="D212" t="s">
         <v>665</v>
-      </c>
-      <c r="C212" t="s">
-        <v>666</v>
-      </c>
-      <c r="D212" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>666</v>
+      </c>
+      <c r="B213" t="s">
+        <v>667</v>
+      </c>
+      <c r="C213" t="s">
         <v>668</v>
       </c>
-      <c r="B213" t="s">
-        <v>669</v>
-      </c>
-      <c r="C213" t="s">
-        <v>670</v>
-      </c>
       <c r="D213" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>669</v>
+      </c>
+      <c r="B214" t="s">
+        <v>670</v>
+      </c>
+      <c r="C214" t="s">
         <v>671</v>
-      </c>
-      <c r="B214" t="s">
-        <v>672</v>
-      </c>
-      <c r="C214" t="s">
-        <v>673</v>
       </c>
       <c r="D214" t="s">
         <v>41</v>
@@ -5687,27 +5691,27 @@
     </row>
     <row r="215" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>672</v>
+      </c>
+      <c r="B215" t="s">
+        <v>673</v>
+      </c>
+      <c r="C215" t="s">
         <v>674</v>
       </c>
-      <c r="B215" t="s">
+      <c r="D215" t="s">
         <v>675</v>
-      </c>
-      <c r="C215" t="s">
-        <v>676</v>
-      </c>
-      <c r="D215" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>676</v>
+      </c>
+      <c r="B216" t="s">
+        <v>677</v>
+      </c>
+      <c r="C216" t="s">
         <v>678</v>
-      </c>
-      <c r="B216" t="s">
-        <v>679</v>
-      </c>
-      <c r="C216" t="s">
-        <v>680</v>
       </c>
       <c r="D216" t="s">
         <v>77</v>
@@ -5715,13 +5719,13 @@
     </row>
     <row r="217" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>679</v>
+      </c>
+      <c r="B217" t="s">
+        <v>680</v>
+      </c>
+      <c r="C217" t="s">
         <v>681</v>
-      </c>
-      <c r="B217" t="s">
-        <v>682</v>
-      </c>
-      <c r="C217" t="s">
-        <v>683</v>
       </c>
       <c r="D217" t="s">
         <v>41</v>
@@ -5729,13 +5733,13 @@
     </row>
     <row r="218" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>682</v>
+      </c>
+      <c r="B218" t="s">
+        <v>683</v>
+      </c>
+      <c r="C218" t="s">
         <v>684</v>
-      </c>
-      <c r="B218" t="s">
-        <v>685</v>
-      </c>
-      <c r="C218" t="s">
-        <v>686</v>
       </c>
       <c r="D218" t="s">
         <v>41</v>
@@ -5743,83 +5747,83 @@
     </row>
     <row r="219" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>685</v>
+      </c>
+      <c r="B219" t="s">
+        <v>686</v>
+      </c>
+      <c r="C219" t="s">
         <v>687</v>
       </c>
-      <c r="B219" t="s">
-        <v>688</v>
-      </c>
-      <c r="C219" t="s">
-        <v>689</v>
-      </c>
       <c r="D219" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>688</v>
+      </c>
+      <c r="B220" t="s">
+        <v>689</v>
+      </c>
+      <c r="C220" t="s">
         <v>690</v>
       </c>
-      <c r="B220" t="s">
+      <c r="D220" t="s">
         <v>691</v>
-      </c>
-      <c r="C220" t="s">
-        <v>692</v>
-      </c>
-      <c r="D220" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>692</v>
+      </c>
+      <c r="B221" t="s">
+        <v>693</v>
+      </c>
+      <c r="C221" t="s">
         <v>694</v>
       </c>
-      <c r="B221" t="s">
-        <v>695</v>
-      </c>
-      <c r="C221" t="s">
-        <v>696</v>
-      </c>
       <c r="D221" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>695</v>
+      </c>
+      <c r="B222" t="s">
+        <v>696</v>
+      </c>
+      <c r="C222" t="s">
         <v>697</v>
       </c>
-      <c r="B222" t="s">
-        <v>698</v>
-      </c>
-      <c r="C222" t="s">
-        <v>699</v>
-      </c>
       <c r="D222" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>698</v>
+      </c>
+      <c r="B223" t="s">
+        <v>699</v>
+      </c>
+      <c r="C223" t="s">
         <v>700</v>
       </c>
-      <c r="B223" t="s">
+      <c r="D223" t="s">
         <v>701</v>
-      </c>
-      <c r="C223" t="s">
-        <v>702</v>
-      </c>
-      <c r="D223" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>702</v>
+      </c>
+      <c r="B224" t="s">
+        <v>703</v>
+      </c>
+      <c r="C224" t="s">
         <v>704</v>
-      </c>
-      <c r="B224" t="s">
-        <v>705</v>
-      </c>
-      <c r="C224" t="s">
-        <v>706</v>
       </c>
       <c r="D224" t="s">
         <v>41</v>
@@ -5827,27 +5831,27 @@
     </row>
     <row r="225" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>705</v>
+      </c>
+      <c r="B225" t="s">
+        <v>706</v>
+      </c>
+      <c r="C225" t="s">
         <v>707</v>
       </c>
-      <c r="B225" t="s">
-        <v>708</v>
-      </c>
-      <c r="C225" t="s">
-        <v>709</v>
-      </c>
       <c r="D225" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>708</v>
+      </c>
+      <c r="B226" t="s">
+        <v>709</v>
+      </c>
+      <c r="C226" t="s">
         <v>710</v>
-      </c>
-      <c r="B226" t="s">
-        <v>711</v>
-      </c>
-      <c r="C226" t="s">
-        <v>712</v>
       </c>
       <c r="D226" t="s">
         <v>41</v>
@@ -5855,27 +5859,27 @@
     </row>
     <row r="227" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>711</v>
+      </c>
+      <c r="B227" t="s">
+        <v>712</v>
+      </c>
+      <c r="C227" t="s">
         <v>713</v>
       </c>
-      <c r="B227" t="s">
-        <v>714</v>
-      </c>
-      <c r="C227" t="s">
-        <v>715</v>
-      </c>
       <c r="D227" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>714</v>
+      </c>
+      <c r="B228" t="s">
+        <v>715</v>
+      </c>
+      <c r="C228" t="s">
         <v>716</v>
-      </c>
-      <c r="B228" t="s">
-        <v>717</v>
-      </c>
-      <c r="C228" t="s">
-        <v>718</v>
       </c>
       <c r="D228" t="s">
         <v>41</v>
@@ -5883,13 +5887,13 @@
     </row>
     <row r="229" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>717</v>
+      </c>
+      <c r="B229" t="s">
+        <v>718</v>
+      </c>
+      <c r="C229" t="s">
         <v>719</v>
-      </c>
-      <c r="B229" t="s">
-        <v>720</v>
-      </c>
-      <c r="C229" t="s">
-        <v>721</v>
       </c>
       <c r="D229" t="s">
         <v>41</v>
@@ -5897,13 +5901,13 @@
     </row>
     <row r="230" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>720</v>
+      </c>
+      <c r="B230" t="s">
+        <v>721</v>
+      </c>
+      <c r="C230" t="s">
         <v>722</v>
-      </c>
-      <c r="B230" t="s">
-        <v>723</v>
-      </c>
-      <c r="C230" t="s">
-        <v>724</v>
       </c>
       <c r="D230" t="s">
         <v>41</v>
@@ -5911,13 +5915,13 @@
     </row>
     <row r="231" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>723</v>
+      </c>
+      <c r="B231" t="s">
+        <v>724</v>
+      </c>
+      <c r="C231" t="s">
         <v>725</v>
-      </c>
-      <c r="B231" t="s">
-        <v>726</v>
-      </c>
-      <c r="C231" t="s">
-        <v>727</v>
       </c>
       <c r="D231" t="s">
         <v>41</v>
@@ -5925,41 +5929,41 @@
     </row>
     <row r="232" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>726</v>
+      </c>
+      <c r="B232" t="s">
+        <v>727</v>
+      </c>
+      <c r="C232" t="s">
         <v>728</v>
       </c>
-      <c r="B232" t="s">
+      <c r="D232" t="s">
         <v>729</v>
-      </c>
-      <c r="C232" t="s">
-        <v>730</v>
-      </c>
-      <c r="D232" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>730</v>
+      </c>
+      <c r="B233" t="s">
+        <v>731</v>
+      </c>
+      <c r="C233" t="s">
         <v>732</v>
       </c>
-      <c r="B233" t="s">
+      <c r="D233" t="s">
         <v>733</v>
-      </c>
-      <c r="C233" t="s">
-        <v>734</v>
-      </c>
-      <c r="D233" t="s">
-        <v>735</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>734</v>
+      </c>
+      <c r="B234" t="s">
+        <v>735</v>
+      </c>
+      <c r="C234" t="s">
         <v>736</v>
-      </c>
-      <c r="B234" t="s">
-        <v>737</v>
-      </c>
-      <c r="C234" t="s">
-        <v>738</v>
       </c>
       <c r="D234" t="s">
         <v>77</v>
@@ -5967,13 +5971,13 @@
     </row>
     <row r="235" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>737</v>
+      </c>
+      <c r="B235" t="s">
+        <v>738</v>
+      </c>
+      <c r="C235" t="s">
         <v>739</v>
-      </c>
-      <c r="B235" t="s">
-        <v>740</v>
-      </c>
-      <c r="C235" t="s">
-        <v>741</v>
       </c>
       <c r="D235" t="s">
         <v>41</v>
@@ -5981,13 +5985,13 @@
     </row>
     <row r="236" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>740</v>
+      </c>
+      <c r="B236" t="s">
+        <v>741</v>
+      </c>
+      <c r="C236" t="s">
         <v>742</v>
-      </c>
-      <c r="B236" t="s">
-        <v>743</v>
-      </c>
-      <c r="C236" t="s">
-        <v>744</v>
       </c>
       <c r="D236" t="s">
         <v>15</v>
@@ -5995,13 +5999,13 @@
     </row>
     <row r="237" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>743</v>
+      </c>
+      <c r="B237" t="s">
+        <v>744</v>
+      </c>
+      <c r="C237" t="s">
         <v>745</v>
-      </c>
-      <c r="B237" t="s">
-        <v>746</v>
-      </c>
-      <c r="C237" t="s">
-        <v>747</v>
       </c>
       <c r="D237" t="s">
         <v>15</v>
@@ -6009,13 +6013,13 @@
     </row>
     <row r="238" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>746</v>
+      </c>
+      <c r="B238" t="s">
+        <v>747</v>
+      </c>
+      <c r="C238" t="s">
         <v>748</v>
-      </c>
-      <c r="B238" t="s">
-        <v>749</v>
-      </c>
-      <c r="C238" t="s">
-        <v>750</v>
       </c>
       <c r="D238" t="s">
         <v>15</v>
@@ -6023,13 +6027,13 @@
     </row>
     <row r="239" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>749</v>
+      </c>
+      <c r="B239" t="s">
+        <v>750</v>
+      </c>
+      <c r="C239" t="s">
         <v>751</v>
-      </c>
-      <c r="B239" t="s">
-        <v>752</v>
-      </c>
-      <c r="C239" t="s">
-        <v>753</v>
       </c>
       <c r="D239" t="s">
         <v>15</v>
@@ -6037,13 +6041,13 @@
     </row>
     <row r="240" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>752</v>
+      </c>
+      <c r="B240" t="s">
+        <v>753</v>
+      </c>
+      <c r="C240" t="s">
         <v>754</v>
-      </c>
-      <c r="B240" t="s">
-        <v>755</v>
-      </c>
-      <c r="C240" t="s">
-        <v>756</v>
       </c>
       <c r="D240" t="s">
         <v>77</v>
@@ -6051,22 +6055,4343 @@
     </row>
     <row r="241" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>755</v>
+      </c>
+      <c r="B241" t="s">
+        <v>756</v>
+      </c>
+      <c r="C241" t="s">
         <v>757</v>
       </c>
-      <c r="B241" t="s">
-        <v>758</v>
-      </c>
-      <c r="C241" t="s">
-        <v>759</v>
-      </c>
       <c r="D241" t="s">
-        <v>362</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A244" t="str">
+        <f>"'"&amp;A2:A2&amp;"',"</f>
+        <v>'Манга Сейлор Мун / Sailor Moon. Том 1',</v>
+      </c>
+      <c r="B244" t="str">
+        <f>"'"&amp;B2:B2&amp;"',"</f>
+        <v>'https://diskomir.ru/catalog/manga_seylor_mun_sailor_moon_tom_1_519231/',</v>
+      </c>
+      <c r="C244" s="1" t="str">
+        <f>"'"&amp;C2:C2&amp;"',"</f>
+        <v>'https://diskomir.ru/upload/iblock/df7/manga-seylor-mun-sailor-moon-tom-1.jpg',</v>
+      </c>
+      <c r="D244" t="str">
+        <f>"'"&amp;D2:D2&amp;"',"</f>
+        <v>'360 руб.',</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A245" t="str">
+        <f t="shared" ref="A245:D308" si="0">"'"&amp;A3:A3&amp;"',"</f>
+        <v>'Хвост Феи / Fairy Tail Том 1',</v>
+      </c>
+      <c r="B245" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/khvost_fei_fairy_tail_tom_1_524323/',</v>
+      </c>
+      <c r="C245" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/915/khvost-fei-fairy-tail-tom-1.jpg',</v>
+      </c>
+      <c r="D245" t="str">
+        <f t="shared" si="0"/>
+        <v>'365 руб.',</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A246" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Волчица и пряности / Wolf and Spice. Том 1',</v>
+      </c>
+      <c r="B246" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_volchitsa_i_pryanosti_wolf_and_spice_tom_1_20527/',</v>
+      </c>
+      <c r="C246" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/6ba/manga-volchitsa-i-pryanosti-wolf-and-spice-tom-1.jpg',</v>
+      </c>
+      <c r="D246" t="str">
+        <f t="shared" si="0"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A247" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Сейлор Мун / Sailor Moon. Том 2',</v>
+      </c>
+      <c r="B247" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_seylor_mun_sailor_moon_tom_2_524322/',</v>
+      </c>
+      <c r="C247" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/e4d/manga-seylor-mun-sailor-moon-tom-2.jpg',</v>
+      </c>
+      <c r="D247" t="str">
+        <f t="shared" si="0"/>
+        <v>'360 руб.',</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A248" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Город кислоты / Acid Town. Том 1',</v>
+      </c>
+      <c r="B248" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_gorod_kisloty_acid_town_tom_1_41836/',</v>
+      </c>
+      <c r="C248" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/0dc/manga-gorod-kisloty-acid-town-tom-1.jpg',</v>
+      </c>
+      <c r="D248" t="str">
+        <f t="shared" si="0"/>
+        <v>'300 руб.',</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A249" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Токийский гуль: re. Том 1 / Tokyo Ghoul:Re Vol.1',</v>
+      </c>
+      <c r="B249" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_tokiyskiy_gul_re_tom_1_tokyo_ghoul_re_vol_1_560252/',</v>
+      </c>
+      <c r="C249" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/646/manga-tokiyskiy-gul-re-tom-1-tokyo-ghoul-re-vol-1.jpg',</v>
+      </c>
+      <c r="D249" t="str">
+        <f t="shared" si="0"/>
+        <v>'580 руб.',</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A250" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Моя геройская академия. Книга 4 / My Hero Academia. Том 4',</v>
+      </c>
+      <c r="B250" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_moya_geroyskaya_akademiya_kniga_4_my_hero_academia_tom_4_560173/',</v>
+      </c>
+      <c r="C250" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/c3f/manga-moya-geroyskaya-akademiya-kniga-4-my-hero-academia-tom-4.jpg',</v>
+      </c>
+      <c r="D250" t="str">
+        <f t="shared" si="0"/>
+        <v>'530 руб.',</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A251" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Моя геройская академия. Книга 2 / My Hero Academia. Том 2',</v>
+      </c>
+      <c r="B251" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_moya_geroyskaya_akademiya_kniga_2_my_hero_academia_tom_2_547321/',</v>
+      </c>
+      <c r="C251" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/dd3/manga-moya-geroyskaya-akademiya-kniga-2-my-hero-academia-tom-2.JPG',</v>
+      </c>
+      <c r="D251" t="str">
+        <f t="shared" si="0"/>
+        <v>'530 руб.',</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A252" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Атака на Титанов / Shingeki no Kyojin Том 5. Книги 9 и 10',</v>
+      </c>
+      <c r="B252" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_ataka_na_titanov_shingeki_no_kyojin_tom_5_knigi_9_i_10_450383/',</v>
+      </c>
+      <c r="C252" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/071/manga-ataka-na-titanov-shingeki-no-kyojin-tom-5-knigi-9-i-10.jpg',</v>
+      </c>
+      <c r="D252" t="str">
+        <f t="shared" si="0"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A253" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Гот / Goth',</v>
+      </c>
+      <c r="B253" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_got_goth_35254/',</v>
+      </c>
+      <c r="C253" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/e0e/manga-got-goth.JPG',</v>
+      </c>
+      <c r="D253" t="str">
+        <f t="shared" si="0"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A254" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Токийский гуль: re. Том 2 / Tokyo Ghoul:Re Vol.2',</v>
+      </c>
+      <c r="B254" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_tokiyskiy_gul_re_tom_2_tokyo_ghoul_re_vol_2_560253/',</v>
+      </c>
+      <c r="C254" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/5b4/manga-tokiyskiy-gul-re-tom-2-tokyo-ghoul-re-vol-2.jpeg',</v>
+      </c>
+      <c r="D254" t="str">
+        <f t="shared" si="0"/>
+        <v>'580 руб.',</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A255" t="str">
+        <f t="shared" si="0"/>
+        <v>'Хвост Феи / Fairy Tail Том 2',</v>
+      </c>
+      <c r="B255" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/khvost_fei_fairy_tail_tom_2_524324/',</v>
+      </c>
+      <c r="C255" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/347/khvost-fei-fairy-tail-tom-2.jpg',</v>
+      </c>
+      <c r="D255" t="str">
+        <f t="shared" si="0"/>
+        <v>'365 руб.',</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A256" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Волчица и пряности / Wolf and Spice. Том 3',</v>
+      </c>
+      <c r="B256" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_volchitsa_i_pryanosti_wolf_and_spice_tom_3_33497/',</v>
+      </c>
+      <c r="C256" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/532/manga-volchitsa-i-pryanosti-wolf-and-spice-tom-3.jpg',</v>
+      </c>
+      <c r="D256" t="str">
+        <f t="shared" si="0"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A257" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Врата;Штейна 0 / Steins;Gate 0. Том 2',</v>
+      </c>
+      <c r="B257" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_vrata_shteyna_0_steins_gate_0_tom_2_552222/',</v>
+      </c>
+      <c r="C257" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/242/manga-vrata-shteyna-0-steins-gate-0-tom-2.jpeg',</v>
+      </c>
+      <c r="D257" t="str">
+        <f t="shared" si="0"/>
+        <v>'300 руб.',</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A258" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Врата;Штейна / Steins;Gate. Том 1',</v>
+      </c>
+      <c r="B258" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_vrata_shteyna_steins_gate_tom_1_336972/',</v>
+      </c>
+      <c r="C258" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/494/manga-vrata-shteyna-steins-gate-tom-1.jpg',</v>
+      </c>
+      <c r="D258" t="str">
+        <f t="shared" si="0"/>
+        <v>'330 руб.',</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A259" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Город кислоты / Acid Town. Том 4',</v>
+      </c>
+      <c r="B259" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_gorod_kisloty_acid_town_tom_4_99660/',</v>
+      </c>
+      <c r="C259" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/c96/manga-gorod-kisloty-acid-town-tom-4.jpg',</v>
+      </c>
+      <c r="D259" t="str">
+        <f t="shared" si="0"/>
+        <v>'300 руб.',</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A260" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Токийский гуль: re. Том 3 / Tokyo Ghoul:Re Vol.3',</v>
+      </c>
+      <c r="B260" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_tokiyskiy_gul_re_tom_3_tokyo_ghoul_re_vol_3_560255/',</v>
+      </c>
+      <c r="C260" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/572/manga-tokiyskiy-gul-re-tom-3-tokyo-ghoul-re-vol-3.jpeg',</v>
+      </c>
+      <c r="D260" t="str">
+        <f t="shared" si="0"/>
+        <v>'580 руб.',</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A261" t="str">
+        <f t="shared" si="0"/>
+        <v>'Хочу съесть твою поджелудочную / Kimi no Suizou o Tabetai',</v>
+      </c>
+      <c r="B261" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/khochu_sest_tvoyu_podzheludochnuyu_kimi_no_suizou_o_tabetai_547588/',</v>
+      </c>
+      <c r="C261" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/cb9/khochu-sest-tvoyu-podzheludochnuyu-kimi-no-suizou-o-tabetai.JPG',</v>
+      </c>
+      <c r="D261" t="str">
+        <f t="shared" si="0"/>
+        <v>'670 руб.',</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A262" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Made in Abyss. Созданный в бездне. Том 2',</v>
+      </c>
+      <c r="B262" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_made_in_abyss_sozdannyy_v_bezdne_tom_2_533587/',</v>
+      </c>
+      <c r="C262" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/4bd/manga-made-in-abyss-sozdannyy-v-bezdne-tom-2.jpg',</v>
+      </c>
+      <c r="D262" t="str">
+        <f t="shared" si="0"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A263" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Город кислоты / Acid Town. Том 5',</v>
+      </c>
+      <c r="B263" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_gorod_kisloty_acid_town_tom_5_493318/',</v>
+      </c>
+      <c r="C263" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/d0a/manga-gorod-kisloty-acid-town-tom-5.jpg',</v>
+      </c>
+      <c r="D263" t="str">
+        <f t="shared" si="0"/>
+        <v>'300 руб.',</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A264" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Бездомный Бог / Noragami. Том 1',</v>
+      </c>
+      <c r="B264" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_bezdomnyy_bog_noragami_tom_1_382292/',</v>
+      </c>
+      <c r="C264" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/5d7/manga-bezdomnyy-bog-noragami-tom-1.jpg',</v>
+      </c>
+      <c r="D264" t="str">
+        <f t="shared" si="0"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A265" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Врата;Штейна / Steins;Gate. Том 2',</v>
+      </c>
+      <c r="B265" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_vrata_shteyna_steins_gate_tom_2_355084/',</v>
+      </c>
+      <c r="C265" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/21c/manga-vrata-shteyna-steins-gate-tom-2.jpg',</v>
+      </c>
+      <c r="D265" t="str">
+        <f t="shared" si="0"/>
+        <v>'330 руб.',</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A266" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Так сложно любить отаку / Otaku ni Koi wa Muzukashii. Том 2',</v>
+      </c>
+      <c r="B266" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_tak_slozhno_lyubit_otaku_otaku_ni_koi_wa_muzukashii_tom_2_543108/',</v>
+      </c>
+      <c r="C266" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/a2e/manga-tak-slozhno-lyubit-otaku-otaku-ni-koi-wa-muzukashii-tom-2.jpg',</v>
+      </c>
+      <c r="D266" t="str">
+        <f t="shared" si="0"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A267" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Врата;Штейна 0 / Steins;Gate 0. Том 1',</v>
+      </c>
+      <c r="B267" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_vrata_shteyna_0_steins_gate_0_tom_1_536899/',</v>
+      </c>
+      <c r="C267" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/ea4/manga-vrata-shteyna-0-steins-gate-0-tom-1.jpg',</v>
+      </c>
+      <c r="D267" t="str">
+        <f t="shared" si="0"/>
+        <v>'300 руб.',</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A268" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Made in Abyss. Созданный в бездне. Том 3',</v>
+      </c>
+      <c r="B268" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_made_in_abyss_sozdannyy_v_bezdne_tom_3_533590/',</v>
+      </c>
+      <c r="C268" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/2d8/manga-made-in-abyss-sozdannyy-v-bezdne-tom-3.jpg',</v>
+      </c>
+      <c r="D268" t="str">
+        <f t="shared" si="0"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A269" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Тетрадь Смерти. Death Note. Black Edition. Книга 2',</v>
+      </c>
+      <c r="B269" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_tetrad_smerti_death_note_black_edition_kniga_2_485623/',</v>
+      </c>
+      <c r="C269" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/edb/manga-tetrad-smerti-death-note-black-edition-kniga-2.jpg',</v>
+      </c>
+      <c r="D269" t="str">
+        <f t="shared" si="0"/>
+        <v>'700 руб.',</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A270" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Атака на Титанов. Том 7. Книги 13 и 14',</v>
+      </c>
+      <c r="B270" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_ataka_na_titanov_shingeki_no_kyojin_tom_7_knigi_13_i_14_479223/',</v>
+      </c>
+      <c r="C270" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/0d8/manga-ataka-na-titanov-shingeki-no-kyojin-tom-7-knigi-13-i-14.jpg',</v>
+      </c>
+      <c r="D270" t="str">
+        <f t="shared" si="0"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A271" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Сад изящных слов',</v>
+      </c>
+      <c r="B271" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_sad_izyashchnykh_slov_375070/',</v>
+      </c>
+      <c r="C271" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/ede/manga-sad-izyashchnykh-slov.jpg',</v>
+      </c>
+      <c r="D271" t="str">
+        <f t="shared" si="0"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A272" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Без игры жизни нет / No Game No Life. Том 1',</v>
+      </c>
+      <c r="B272" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_bez_igry_zhizni_net_no_game_no_life_tom_1_343672/',</v>
+      </c>
+      <c r="C272" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/066/manga-bez-igry-zhizni-net-no-game-no-life-tom-1.jpg',</v>
+      </c>
+      <c r="D272" t="str">
+        <f t="shared" si="0"/>
+        <v>'300 руб.',</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A273" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Нахальный принц и кошка-несмеяна. Том 1',</v>
+      </c>
+      <c r="B273" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_nakhalnyy_prints_i_koshka_nesmeyana_hentai_ouji_to_warawanai_neko_tom_1_83298/',</v>
+      </c>
+      <c r="C273" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/f15/manga-nakhalnyy-prints-i-koshka-nesmeyana-hentai-ouji-to-warawanai-neko-tom-1.jpg',</v>
+      </c>
+      <c r="D273" t="str">
+        <f t="shared" si="0"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A274" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Город кислоты / Acid Town. Том 3',</v>
+      </c>
+      <c r="B274" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_gorod_kisloty_acid_town_tom_3_47869/',</v>
+      </c>
+      <c r="C274" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/358/manga-gorod-kisloty-acid-town-tom-3.jpg',</v>
+      </c>
+      <c r="D274" t="str">
+        <f t="shared" si="0"/>
+        <v>'300 руб.',</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A275" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Восхождение Героя Щита / Tate no Yuusha no Nariagari. Том 10',</v>
+      </c>
+      <c r="B275" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_voskhozhdenie_geroya_shchita_tate_no_yuusha_no_nariagari_tom_10/',</v>
+      </c>
+      <c r="C275" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/36c/manga-voskhozhdenie-geroya-shchita-tate-no-yuusha-no-nariagari-tom-10.jpeg',</v>
+      </c>
+      <c r="D275" t="str">
+        <f t="shared" si="0"/>
+        <v>'330 руб.',</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A276" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Истории монстров. Том 3',</v>
+      </c>
+      <c r="B276" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_istorii_monstrov_tom_3_552233/',</v>
+      </c>
+      <c r="C276" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/fcb/manga-istorii-monstrov-tom-3.jpeg',</v>
+      </c>
+      <c r="D276" t="str">
+        <f t="shared" si="0"/>
+        <v>'330 руб.',</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A277" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Made in Abyss. Созданный в бездне. Том 8',</v>
+      </c>
+      <c r="B277" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_made_in_abyss_sozdannyy_v_bezdne_tom_8_574897/',</v>
+      </c>
+      <c r="C277" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/e01/manga-made-in-abyss-sozdannyy-v-bezdne-tom-8.jpg',</v>
+      </c>
+      <c r="D277" t="str">
+        <f t="shared" si="0"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A278" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Made in Abyss. Созданный в бездне. Том 6',</v>
+      </c>
+      <c r="B278" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_made_in_abyss_sozdannyy_v_bezdne_tom_6_574895/',</v>
+      </c>
+      <c r="C278" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/601/manga-made-in-abyss-sozdannyy-v-bezdne-tom-6.jpg',</v>
+      </c>
+      <c r="D278" t="str">
+        <f t="shared" si="0"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A279" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Made in Abyss. Созданный в бездне. Том 5',</v>
+      </c>
+      <c r="B279" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_made_in_abyss_sozdannyy_v_bezdne_tom_5_546247/',</v>
+      </c>
+      <c r="C279" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/e74/manga-made-in-abyss-sozdannyy-v-bezdne-tom-5.jpg',</v>
+      </c>
+      <c r="D279" t="str">
+        <f t="shared" si="0"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A280" t="str">
+        <f t="shared" si="0"/>
+        <v>'Семь смертных грехов. Том 1 / Nanatsu no Taizai. Vol. 1 + Vol. 2',</v>
+      </c>
+      <c r="B280" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/sem_smertnykh_grekhov_tom_1_nanatsu_no_taizai_vol_1_vol_2_545881/',</v>
+      </c>
+      <c r="C280" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/fdd/sem-smertnykh-grekhov-tom-1-nanatsu-no-taizai-vol-1-vol-2.jpg',</v>
+      </c>
+      <c r="D280" t="str">
+        <f t="shared" si="0"/>
+        <v>'580 руб.',</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A281" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Made in Abyss. Созданный в бездне. Том 4',</v>
+      </c>
+      <c r="B281" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_made_in_abyss_sozdannyy_v_bezdne_tom_4_545001/',</v>
+      </c>
+      <c r="C281" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/181/manga-made-in-abyss-sozdannyy-v-bezdne-tom-4.jpg',</v>
+      </c>
+      <c r="D281" t="str">
+        <f t="shared" si="0"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A282" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Милый Дом Чи. Том 1',</v>
+      </c>
+      <c r="B282" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_milyy_dom_chi_tom_1_537979/',</v>
+      </c>
+      <c r="C282" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/f18/manga-milyy-dom-chi-tom-1.jpg',</v>
+      </c>
+      <c r="D282" t="str">
+        <f t="shared" si="0"/>
+        <v>'360 руб.',</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A283" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Стальной Алхимик. Книга 2 / Fullmetal Alchemist. Vol. 2',</v>
+      </c>
+      <c r="B283" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_stalnoy_alkhimik_kniga_2_fullmetal_alchemist_vol_2_530938/',</v>
+      </c>
+      <c r="C283" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/1b3/manga-stalnoy-alkhimik-kniga-2-fullmetal-alchemist-vol-2.jpg',</v>
+      </c>
+      <c r="D283" t="str">
+        <f t="shared" si="0"/>
+        <v>'700 руб.',</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A284" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Восхождение Героя Щита / Tate no Yuusha no Nariagari. Том 9',</v>
+      </c>
+      <c r="B284" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_voskhozhdenie_geroya_shchita_tate_no_yuusha_no_nariagari_tom_9_530637/',</v>
+      </c>
+      <c r="C284" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/588/manga-voskhozhdenie-geroya-shchita-tate-no-yuusha-no-nariagari-tom-9.jpg',</v>
+      </c>
+      <c r="D284" t="str">
+        <f t="shared" si="0"/>
+        <v>'330 руб.',</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A285" t="str">
+        <f t="shared" si="0"/>
+        <v>'Хвост Феи / Fairy Tail. Том 3',</v>
+      </c>
+      <c r="B285" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/khvost_fei_fairy_tail_tom_3_530635/',</v>
+      </c>
+      <c r="C285" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/aa6/khvost-fei-fairy-tail-tom-3.jpg',</v>
+      </c>
+      <c r="D285" t="str">
+        <f t="shared" si="0"/>
+        <v>'370 руб.',</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A286" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Стальной Алхимик. Книга 1 / Fullmetal Alchemist. Vol. 1',</v>
+      </c>
+      <c r="B286" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_stalnoy_alkhimik_kniga_1_fullmetal_alchemist_vol_1_530072/',</v>
+      </c>
+      <c r="C286" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/001/manga-stalnoy-alkhimik-kniga-1-fullmetal-alchemist-vol-1.jpg',</v>
+      </c>
+      <c r="D286" t="str">
+        <f t="shared" si="0"/>
+        <v>'700 руб.',</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A287" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Загадка Дьявола / Akuma no Riddle. Том 1',</v>
+      </c>
+      <c r="B287" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_zagadka_dyavola_akuma_no_riddle_tom_1_499931/',</v>
+      </c>
+      <c r="C287" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/b6a/manga-zagadka-dyavola-akuma-no-riddle-tom-1.jpg',</v>
+      </c>
+      <c r="D287" t="str">
+        <f t="shared" si="0"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A288" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Тетрадь Смерти. Death Note. Black Edition. Книга 4',</v>
+      </c>
+      <c r="B288" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_tetrad_smerti_death_note_black_edition_kniga_4_491895/',</v>
+      </c>
+      <c r="C288" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/59e/manga-tetrad-smerti-death-note-black-edition-kniga-4.jpg',</v>
+      </c>
+      <c r="D288" t="str">
+        <f t="shared" si="0"/>
+        <v>'700 руб.',</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A289" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Бездомный Бог / Noragami. Том 9',</v>
+      </c>
+      <c r="B289" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_bezdomnyy_bog_noragami_tom_9_491629/',</v>
+      </c>
+      <c r="C289" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/b91/manga-bezdomnyy-bog-noragami-tom-9.jpg',</v>
+      </c>
+      <c r="D289" t="str">
+        <f t="shared" si="0"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A290" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Бездомный Бог / Noragami. Том 7',</v>
+      </c>
+      <c r="B290" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_bezdomnyy_bog_noragami_tom_7_489668/',</v>
+      </c>
+      <c r="C290" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/a69/manga-bezdomnyy-bog-noragami-tom-7.jpg',</v>
+      </c>
+      <c r="D290" t="str">
+        <f t="shared" si="0"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A291" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Атака на Титанов / Shingeki no Kyojin Том 9. Книги 17 и 18',</v>
+      </c>
+      <c r="B291" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_ataka_na_titanov_shingeki_no_kyojin_tom_9_knigi_17_i_18_489140/',</v>
+      </c>
+      <c r="C291" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/6bb/manga-ataka-na-titanov-shingeki-no-kyojin-tom-9-knigi-17-i-18.jpg',</v>
+      </c>
+      <c r="D291" t="str">
+        <f t="shared" si="0"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A292" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Атака на Титанов / Shingeki no Kyojin Том 8. Книги 15 и 16',</v>
+      </c>
+      <c r="B292" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_ataka_na_titanov_shingeki_no_kyojin_tom_8_knigi_15_i_16_483407/',</v>
+      </c>
+      <c r="C292" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/c05/manga-ataka-na-titanov-shingeki-no-kyojin-tom-8-knigi-15-i-16.jpg',</v>
+      </c>
+      <c r="D292" t="str">
+        <f t="shared" si="0"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A293" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Волчица и пряности / Wolf and Spice. Том 13',</v>
+      </c>
+      <c r="B293" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_volchitsa_i_pryanosti_wolf_and_spice_tom_13_402874/',</v>
+      </c>
+      <c r="C293" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/062/manga-volchitsa-i-pryanosti-wolf-and-spice-tom-13.jpg',</v>
+      </c>
+      <c r="D293" t="str">
+        <f t="shared" si="0"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A294" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Атака на Титанов / Shingeki no Kyojin Том 2. Книги 3 и 4',</v>
+      </c>
+      <c r="B294" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_ataka_na_titanov_shingeki_no_kyojin_tom_2_knigi_3_i_4_374580/',</v>
+      </c>
+      <c r="C294" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/af0/manga-ataka-na-titanov-shingeki-no-kyojin-tom-2-knigi-3-i-4.jpg',</v>
+      </c>
+      <c r="D294" t="str">
+        <f t="shared" si="0"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A295" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Волчица и пряности / Wolf and Spice. Том 11',</v>
+      </c>
+      <c r="B295" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_volchitsa_i_pryanosti_wolf_and_spice_tom_11_361784/',</v>
+      </c>
+      <c r="C295" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/389/manga-volchitsa-i-pryanosti-wolf-and-spice-tom-11.jpg',</v>
+      </c>
+      <c r="D295" t="str">
+        <f t="shared" si="0"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A296" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Гостевой клуб лицея Оран / Ouran High School Host Club. Том 3',</v>
+      </c>
+      <c r="B296" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_gostevoy_klub_litseya_oran_ouran_high_school_host_club_tom_3_97395/',</v>
+      </c>
+      <c r="C296" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/1cd/manga-gostevoy-klub-litseya-oran-ouran-high-school-host-club-tom-3.jpg',</v>
+      </c>
+      <c r="D296" t="str">
+        <f t="shared" si="0"/>
+        <v>'270 руб.',</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A297" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга У меня мало друзей / I Don't Have Many Friends. Том 4',</v>
+      </c>
+      <c r="B297" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_u_menya_malo_druzey_i_don_t_have_many_friends_tom_4_59329/',</v>
+      </c>
+      <c r="C297" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/915/manga-u-menya-malo-druzey-i-don-t-have-many-friends-tom-4.jpg',</v>
+      </c>
+      <c r="D297" t="str">
+        <f t="shared" si="0"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A298" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга У меня мало друзей / I Don't Have Many Friends. Том 2',</v>
+      </c>
+      <c r="B298" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_u_menya_malo_druzey_i_don_t_have_many_friends_tom_2_55024/',</v>
+      </c>
+      <c r="C298" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/6a2/manga-u-menya-malo-druzey-i-don-t-have-many-friends-tom-2.jpg',</v>
+      </c>
+      <c r="D298" t="str">
+        <f t="shared" si="0"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A299" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Любимчик / His Most Favorite. Том 1',</v>
+      </c>
+      <c r="B299" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_lyubimchik_his_most_favorite_tom_1_44647/',</v>
+      </c>
+      <c r="C299" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/8a4/manga-lyubimchik-his-most-favorite-tom-1.jpg',</v>
+      </c>
+      <c r="D299" t="str">
+        <f t="shared" si="0"/>
+        <v>'240 руб.',</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A300" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Гримм манга. Том 1',</v>
+      </c>
+      <c r="B300" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_grimm_manga_tom_1_14513/',</v>
+      </c>
+      <c r="C300" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/b74/manga-grimm-manga-tom-1.jpg',</v>
+      </c>
+      <c r="D300" t="str">
+        <f t="shared" si="0"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A301" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Ты сияешь лунной ночью / Kimi wa Tsukiyo ni Hikari Kagayaku Том 1.',</v>
+      </c>
+      <c r="B301" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/ty_siyaesh_lunnoy_nochyu_kimi_wa_tsukiyo_ni_hikari_kagayaku_tom_1/',</v>
+      </c>
+      <c r="C301" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/aa8/manga-ty-siyaesh-lunnoy-nochyu-kimi-wa-tsukiyo-ni-hikari-kagayaku-tom-1.jpeg',</v>
+      </c>
+      <c r="D301" t="str">
+        <f t="shared" si="0"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A302" t="str">
+        <f t="shared" si="0"/>
+        <v>'Ранобэ Death Note. Другая тетрадь. Дело о серийных убийствах B.B. в Лос-Анджелесе',</v>
+      </c>
+      <c r="B302" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/death_note_drugaya_tetrad_delo_o_seriynykh_ubiystvakh_b_b_v_los_andzhelese_560256/',</v>
+      </c>
+      <c r="C302" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/e93/ranobe-death-note-drugaya-tetrad-delo-o-seriynykh-ubiystvakh-b-b-v-los-andzhelese.jpg',</v>
+      </c>
+      <c r="D302" t="str">
+        <f t="shared" si="0"/>
+        <v>'750 руб.',</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A303" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Госпожа Кагуя: В любви как на войне. Любовная битва двух гениев. Книга 1',</v>
+      </c>
+      <c r="B303" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_gospozha_kaguya_v_lyubvi_kak_na_voyne_lyubovnaya_bitva_dvukh_geniev_kniga_1_560171/',</v>
+      </c>
+      <c r="C303" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/e84/manga-gospozha-kaguya-v-lyubvi-kak-na-voyne-lyubovnaya-bitva-dvukh-geniev-kniga-1.jpg',</v>
+      </c>
+      <c r="D303" t="str">
+        <f t="shared" si="0"/>
+        <v>'750 руб.',</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A304" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Истории монстров. Том 4',</v>
+      </c>
+      <c r="B304" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_istorii_monstrov_tom_4_556484/',</v>
+      </c>
+      <c r="C304" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/f98/manga-istorii-monstrov-tom-4.jpeg',</v>
+      </c>
+      <c r="D304" t="str">
+        <f t="shared" si="0"/>
+        <v>'330 руб.',</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A305" t="str">
+        <f t="shared" si="0"/>
+        <v>'Ранобэ Токийский гуль. Прошлое / Tokyo Ghoul. Past',</v>
+      </c>
+      <c r="B305" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/ranobe_tokiyskiy_gul_proshloe_tokyo_ghoul_past_549312/',</v>
+      </c>
+      <c r="C305" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/e55/ranobe-tokiyskiy-gul-proshloe-tokyo-ghoul-past.JPG',</v>
+      </c>
+      <c r="D305" t="str">
+        <f t="shared" si="0"/>
+        <v>'480 руб.',</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A306" t="str">
+        <f t="shared" si="0"/>
+        <v>'One Piece. Большой куш. Книга 3',</v>
+      </c>
+      <c r="B306" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/one_piece_bolshoy_kush_kniga_3_547320/',</v>
+      </c>
+      <c r="C306" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/359/one-piece-bolshoy-kush-kniga-3.JPG',</v>
+      </c>
+      <c r="D306" t="str">
+        <f t="shared" si="0"/>
+        <v>'660 руб.',</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A307" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Отныне нас четыре сестры / Kyou Kara Yonshimai. Том 1',</v>
+      </c>
+      <c r="B307" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/manga_otnyne_nas_chetyre_sestry_kyou_kara_yonshimai_tom_1_547184/',</v>
+      </c>
+      <c r="C307" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/dc5/manga-otnyne-nas-chetyre-sestry-kyou-kara-yonshimai-tom-1.JPG',</v>
+      </c>
+      <c r="D307" t="str">
+        <f t="shared" si="0"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A308" t="str">
+        <f t="shared" si="0"/>
+        <v>'Манга Истории монстров. Том 2',</v>
+      </c>
+      <c r="B308" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/catalog/istorii_monstrov_tom_2_546226/',</v>
+      </c>
+      <c r="C308" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>'https://diskomir.ru/upload/iblock/728/manga-istorii-monstrov-tom-2.jpeg',</v>
+      </c>
+      <c r="D308" t="str">
+        <f t="shared" ref="D308:D371" si="1">"'"&amp;D66:D66&amp;"',"</f>
+        <v>'330 руб.',</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A309" t="str">
+        <f t="shared" ref="A309:D372" si="2">"'"&amp;A67:A67&amp;"',"</f>
+        <v>'Манга Так сложно любить отаку / Otaku ni Koi wa Muzukashii. Том 3',</v>
+      </c>
+      <c r="B309" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_tak_slozhno_lyubit_otaku_otaku_ni_koi_wa_muzukashii_tom_3_543109/',</v>
+      </c>
+      <c r="C309" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/1a6/manga-tak-slozhno-lyubit-otaku-otaku-ni-koi-wa-muzukashii-tom-3.jpg',</v>
+      </c>
+      <c r="D309" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A310" t="str">
+        <f t="shared" si="2"/>
+        <v>'One Piece. Большой куш. Книга 2',</v>
+      </c>
+      <c r="B310" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/one_piece_bolshoy_kush_kniga_2_542543/',</v>
+      </c>
+      <c r="C310" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/08b/one-piece-bolshoy-kush-kniga-2.jpg',</v>
+      </c>
+      <c r="D310" t="str">
+        <f t="shared" si="1"/>
+        <v>'660 руб.',</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A311" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Без игры жизни нет / No Game No Life. Том 2',</v>
+      </c>
+      <c r="B311" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_bez_igry_zhizni_net_no_game_no_life_tom_2_538267/',</v>
+      </c>
+      <c r="C311" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/851/manga-bez-igry-zhizni-net-no-game-no-life-tom-2.jpg',</v>
+      </c>
+      <c r="D311" t="str">
+        <f t="shared" si="1"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A312" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Токийский гуль / Tokyo Ghoul Книга 6. Тома 11 и 12',</v>
+      </c>
+      <c r="B312" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_tokiyskiy_gul_tokyo_ghoul_kniga_6_toma_11_i_12_537082/',</v>
+      </c>
+      <c r="C312" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/381/manga-tokiyskiy-gul-tokyo-ghoul-kniga-6-toma-11-i-12.jpg',</v>
+      </c>
+      <c r="D312" t="str">
+        <f t="shared" si="1"/>
+        <v>'580 руб.',</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A313" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Город, в котором меня нет / Boku dake ga Inai Machi. Том 4',</v>
+      </c>
+      <c r="B313" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_gorod_v_kotorom_menya_net_boku_dake_ga_inai_machi_tom_4_534101/',</v>
+      </c>
+      <c r="C313" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/f4e/manga-gorod-v-kotorom-menya-net-boku-dake-ga-inai-machi-tom-4.jpg',</v>
+      </c>
+      <c r="D313" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A314" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Город, в котором меня нет / Boku dake ga Inai Machi. Том 3',</v>
+      </c>
+      <c r="B314" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_gorod_v_kotorom_menya_net_boku_dake_ga_inai_machi_tom_3_534100/',</v>
+      </c>
+      <c r="C314" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/4a8/manga-gorod-v-kotorom-menya-net-boku-dake-ga-inai-machi-tom-3.jpg',</v>
+      </c>
+      <c r="D314" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A315" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Стальной Алхимик. Книга 3 / Fullmetal Alchemist. Vol. 3',</v>
+      </c>
+      <c r="B315" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_stalnoy_alkhimik_kniga_3_fullmetal_alchemist_vol_3_531992/',</v>
+      </c>
+      <c r="C315" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/1c7/manga-stalnoy-alkhimik-kniga-3-fullmetal-alchemist-vol-3.jpg',</v>
+      </c>
+      <c r="D315" t="str">
+        <f t="shared" si="1"/>
+        <v>'700 руб.',</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A316" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Торадора! / Toradora! Том 7',</v>
+      </c>
+      <c r="B316" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_toradora_toradora_tom_7_531984/',</v>
+      </c>
+      <c r="C316" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/0ae/manga-toradora-toradora-tom-7.jpg',</v>
+      </c>
+      <c r="D316" t="str">
+        <f t="shared" si="1"/>
+        <v>'240 руб.',</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A317" t="str">
+        <f t="shared" si="2"/>
+        <v>'Хвост Феи / Fairy Tail. Том 4',</v>
+      </c>
+      <c r="B317" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/khvost_fei_fairy_tail_tom_4_530636/',</v>
+      </c>
+      <c r="C317" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/b69/khvost-fei-fairy-tail-tom-4.jpg',</v>
+      </c>
+      <c r="D317" t="str">
+        <f t="shared" si="1"/>
+        <v>'370 руб.',</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A318" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Токийский гуль / Tokyo Ghoul Книга 4. Тома 7 и 8',</v>
+      </c>
+      <c r="B318" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_tokiyskiy_gul_tokyo_ghoul_kniga_4_toma_7_i_8_529264/',</v>
+      </c>
+      <c r="C318" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/a59/manga-tokiyskiy-gul-tokyo-ghoul-kniga-4-toma-7-i-8.jpg',</v>
+      </c>
+      <c r="D318" t="str">
+        <f t="shared" si="1"/>
+        <v>'580 руб.',</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A319" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Торадора! / Toradora! Том 6',</v>
+      </c>
+      <c r="B319" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_toradora_toradora_tom_6_524904/',</v>
+      </c>
+      <c r="C319" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/048/manga-toradora-toradora-tom-6.jpg',</v>
+      </c>
+      <c r="D319" t="str">
+        <f t="shared" si="1"/>
+        <v>'240 руб.',</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A320" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Дневник Будущего / Future Diary Mirai Nikki. Том 2',</v>
+      </c>
+      <c r="B320" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_dnevnik_budushchego_future_diary_mirai_nikki_tom_2_524900/',</v>
+      </c>
+      <c r="C320" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/097/manga-dnevnik-budushchego-future-diary-mirai-nikki-tom-2.jpg',</v>
+      </c>
+      <c r="D320" t="str">
+        <f t="shared" si="1"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A321" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Атака на Титанов / Shingeki no Kyojin Том 11. Книги 21 и 22',</v>
+      </c>
+      <c r="B321" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_ataka_na_titanov_shingeki_no_kyojin_tom_11_knigi_21_i_22_518514/',</v>
+      </c>
+      <c r="C321" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/171/manga-ataka-na-titanov-shingeki-no-kyojin-tom-11-knigi-21-i-22.jpg',</v>
+      </c>
+      <c r="D321" t="str">
+        <f t="shared" si="1"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A322" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Тетрадь Смерти. Death Note. Black Edition. Книга 6',</v>
+      </c>
+      <c r="B322" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_tetrad_smerti_death_note_black_edition_kniga_6_506690/',</v>
+      </c>
+      <c r="C322" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/f78/manga-tetrad-smerti-death-note-black-edition-kniga-6.jpg',</v>
+      </c>
+      <c r="D322" t="str">
+        <f t="shared" si="1"/>
+        <v>'700 руб.',</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A323" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Девочка из Чужеземья / Totsuku ni no Shjo. Том 2',</v>
+      </c>
+      <c r="B323" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_devochka_iz_chuzhezemya_totsuku_ni_no_shjo_tom_2_505059/',</v>
+      </c>
+      <c r="C323" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/023/manga-devochka-iz-chuzhezemya-totsuku-ni-no-shjo-tom-2.jpg',</v>
+      </c>
+      <c r="D323" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A324" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Форма голоса / Koe no Katachi. Том 7',</v>
+      </c>
+      <c r="B324" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_forma_golosa_koe_no_katachi_tom_7_505035/',</v>
+      </c>
+      <c r="C324" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/839/manga-forma-golosa-koe-no-katachi-tom-7.jpg',</v>
+      </c>
+      <c r="D324" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A325" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Тетрадь Смерти. Death Note. Black Edition. Книга 3',</v>
+      </c>
+      <c r="B325" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_tetrad_smerti_death_note_black_edition_kniga_3_491514/',</v>
+      </c>
+      <c r="C325" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/3fa/manga-tetrad-smerti-death-note-black-edition-kniga-3.jpg',</v>
+      </c>
+      <c r="D325" t="str">
+        <f t="shared" si="1"/>
+        <v>'700 руб.',</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A326" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Бездомный Бог / Noragami. Том 8',</v>
+      </c>
+      <c r="B326" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_bezdomnyy_bog_noragami_tom_8_489669/',</v>
+      </c>
+      <c r="C326" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/173/manga-bezdomnyy-bog-noragami-tom-8.jpg',</v>
+      </c>
+      <c r="D326" t="str">
+        <f t="shared" si="1"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A327" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Тетрадь Смерти. Death Note. Black Edition. Книга 1',</v>
+      </c>
+      <c r="B327" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_tetrad_smerti_death_note_black_edition_kniga_1_485622/',</v>
+      </c>
+      <c r="C327" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/cb1/manga-tetrad-smerti-death-note-black-edition-kniga-1.jpg',</v>
+      </c>
+      <c r="D327" t="str">
+        <f t="shared" si="1"/>
+        <v>'700 руб.',</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A328" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Бездомный Бог / Noragami. Том 6',</v>
+      </c>
+      <c r="B328" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_bezdomnyy_bog_noragami_tom_6_483303/',</v>
+      </c>
+      <c r="C328" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/40c/manga-bezdomnyy-bog-noragami-tom-6.jpg',</v>
+      </c>
+      <c r="D328" t="str">
+        <f t="shared" si="1"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A329" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Волчица и пряности / Wolf and Spice. Том 14',</v>
+      </c>
+      <c r="B329" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_volchitsa_i_pryanosti_wolf_and_spice_tom_14_456927/',</v>
+      </c>
+      <c r="C329" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/e13/manga-volchitsa-i-pryanosti-wolf-and-spice-tom-14.jpg',</v>
+      </c>
+      <c r="D329" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A330" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Шерлок. Том 3. Большая игра',</v>
+      </c>
+      <c r="B330" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_sherlok_tom_3_bolshaya_igra_449871/',</v>
+      </c>
+      <c r="C330" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/029/manga-sherlok-tom-3-bolshaya-igra.jpg',</v>
+      </c>
+      <c r="D330" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A331" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Шерлок. Том 2. Слепой банкир',</v>
+      </c>
+      <c r="B331" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_sherlok_tom_2_slepoy_bankir_449868/',</v>
+      </c>
+      <c r="C331" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/406/manga-sherlok-tom-2-slepoy-bankir.jpg',</v>
+      </c>
+      <c r="D331" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A332" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Шерлок. Том 1. Этюд в розовых тонах',</v>
+      </c>
+      <c r="B332" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_sherlok_tom_1_etyud_v_rozovykh_tonakh_449867/',</v>
+      </c>
+      <c r="C332" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/53f/manga-sherlok-tom-1-etyud-v-rozovykh-tonakh.jpg',</v>
+      </c>
+      <c r="D332" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A333" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Форма голоса / Koe no Katachi. Том 1',</v>
+      </c>
+      <c r="B333" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_forma_golosa_koe_no_katachi_tom_1_402881/',</v>
+      </c>
+      <c r="C333" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/960/manga-forma-golosa-koe-no-katachi-tom-1.jpg',</v>
+      </c>
+      <c r="D333" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A334" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Уравнение любви / Love Equation. Том 3',</v>
+      </c>
+      <c r="B334" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_uravnenie_lyubvi_love_equation_tom_3_401860/',</v>
+      </c>
+      <c r="C334" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/07d/manga-uravnenie-lyubvi-love-equation-tom-3.jpg',</v>
+      </c>
+      <c r="D334" t="str">
+        <f t="shared" si="1"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A335" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Волчица и пряности / Wolf and Spice. Том 12',</v>
+      </c>
+      <c r="B335" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_volchitsa_i_pryanosti_wolf_and_spice_tom_12_380559/',</v>
+      </c>
+      <c r="C335" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/0d5/manga-volchitsa-i-pryanosti-wolf-and-spice-tom-12.jpg',</v>
+      </c>
+      <c r="D335" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A336" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Волчица и пряности / Wolf and Spice. Том 10',</v>
+      </c>
+      <c r="B336" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_volchitsa_i_pryanosti_wolf_and_spice_tom_10_361781/',</v>
+      </c>
+      <c r="C336" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/0d3/manga-volchitsa-i-pryanosti-wolf-and-spice-tom-10.jpg',</v>
+      </c>
+      <c r="D336" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A337" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Моменты жизни / Chibisan Date. Том 4',</v>
+      </c>
+      <c r="B337" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_momenty_zhizni_chibisan_date_tom_4_302827/',</v>
+      </c>
+      <c r="C337" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/7ef/manga-momenty-zhizni-chibisan-date-tom-4.jpg',</v>
+      </c>
+      <c r="D337" t="str">
+        <f t="shared" si="1"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A338" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга В лес, где мерцают светлячки / Hotarubi no Mori e',</v>
+      </c>
+      <c r="B338" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_v_les_gde_mertsayut_svetlyachki_hotarubi_no_mori_e_99847/',</v>
+      </c>
+      <c r="C338" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/c44/manga-v-les-gde-mertsayut-svetlyachki-hotarubi-no-mori-e.jpg',</v>
+      </c>
+      <c r="D338" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A339" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Моменты жизни / Chibisan Date. Том 3',</v>
+      </c>
+      <c r="B339" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_momenty_zhizni_chibisan_date_tom_3_98301/',</v>
+      </c>
+      <c r="C339" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/b06/manga-momenty-zhizni-chibisan-date-tom-3.jpg',</v>
+      </c>
+      <c r="D339" t="str">
+        <f t="shared" si="1"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A340" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга У меня мало друзей / I Don't Have Many Friends. Том 8',</v>
+      </c>
+      <c r="B340" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_u_menya_malo_druzey_i_don_t_have_many_friends_tom_8_97259/',</v>
+      </c>
+      <c r="C340" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/f5f/manga-u-menya-malo-druzey-i-don-t-have-many-friends-tom-8.jpg',</v>
+      </c>
+      <c r="D340" t="str">
+        <f t="shared" si="1"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A341" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Уравнение любви / Love Equation. Том 1',</v>
+      </c>
+      <c r="B341" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_uravnenie_lyubvi_love_equation_tom_1_83573/',</v>
+      </c>
+      <c r="C341" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/d1d/manga-uravnenie-lyubvi-love-equation-tom-1.jpg',</v>
+      </c>
+      <c r="D341" t="str">
+        <f t="shared" si="1"/>
+        <v>'210 руб.',</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A342" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга У меня мало друзей / I Don't Have Many Friends. Том 7',</v>
+      </c>
+      <c r="B342" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_u_menya_malo_druzey_i_don_t_have_many_friends_tom_7_83297/',</v>
+      </c>
+      <c r="C342" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/579/manga-u-menya-malo-druzey-i-don-t-have-many-friends-tom-7.jpg',</v>
+      </c>
+      <c r="D342" t="str">
+        <f t="shared" si="1"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A343" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Староста-горничная! / The Student Council President is a Maid!  Том 2',</v>
+      </c>
+      <c r="B343" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_starosta_gornichnaya_the_student_council_president_is_a_maid_tom_2_82946/',</v>
+      </c>
+      <c r="C343" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/5da/manga-starosta-gornichnaya-the-student-council-president-is-a-maid-tom-2.jpg',</v>
+      </c>
+      <c r="D343" t="str">
+        <f t="shared" si="1"/>
+        <v>'240 руб.',</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A344" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Волчица и пряности / Wolf and Spice. Том 8',</v>
+      </c>
+      <c r="B344" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_volchitsa_i_pryanosti_wolf_and_spice_tom_8_69680/',</v>
+      </c>
+      <c r="C344" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/e73/manga-volchitsa-i-pryanosti-wolf-and-spice-tom-8.jpg',</v>
+      </c>
+      <c r="D344" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A345" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Волчица и пряности / Wolf and Spice. Том 7',</v>
+      </c>
+      <c r="B345" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_volchitsa_i_pryanosti_wolf_and_spice_tom_7_69679/',</v>
+      </c>
+      <c r="C345" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/5bf/manga-volchitsa-i-pryanosti-wolf-and-spice-tom-7.jpg',</v>
+      </c>
+      <c r="D345" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A346" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Нелюбимый / Loveless. Том 1',</v>
+      </c>
+      <c r="B346" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_nelyubimyy_loveless_tom_1_68319/',</v>
+      </c>
+      <c r="C346" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/f0d/manga-nelyubimyy-loveless-tom-1.jpg',</v>
+      </c>
+      <c r="D346" t="str">
+        <f t="shared" si="1"/>
+        <v>'310 руб.',</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A347" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Хеталия и страны Оси / Hetalia Axis Powers. Том 3',</v>
+      </c>
+      <c r="B347" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_khetaliya_i_strany_osi_hetalia_axis_powers_tom_3_66651/',</v>
+      </c>
+      <c r="C347" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/373/manga-khetaliya-i-strany-osi-hetalia-axis-powers-tom-3.jpg',</v>
+      </c>
+      <c r="D347" t="str">
+        <f t="shared" si="1"/>
+        <v>'270 руб.',</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A348" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга У меня мало друзей / I Don't Have Many Friends. Том 3',</v>
+      </c>
+      <c r="B348" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_u_menya_malo_druzey_i_don_t_have_many_friends_tom_3_59328/',</v>
+      </c>
+      <c r="C348" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/796/manga-u-menya-malo-druzey-i-don-t-have-many-friends-tom-3.jpg',</v>
+      </c>
+      <c r="D348" t="str">
+        <f t="shared" si="1"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A349" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Печальная песнь агнца / Lament of the Lamb. Том 3',</v>
+      </c>
+      <c r="B349" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_pechalnaya_pesn_agntsa_lament_of_the_lamb_tom_3_59325/',</v>
+      </c>
+      <c r="C349" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/3a0/manga-pechalnaya-pesn-agntsa-lament-of-the-lamb-tom-3.jpg',</v>
+      </c>
+      <c r="D349" t="str">
+        <f t="shared" si="1"/>
+        <v>'190 руб.',</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A350" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Моменты жизни / Chibisan Date. Том 2',</v>
+      </c>
+      <c r="B350" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_momenty_zhizni_chibisan_date_tom_2_57186/',</v>
+      </c>
+      <c r="C350" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/e2e/manga-momenty-zhizni-chibisan-date-tom-2.jpg',</v>
+      </c>
+      <c r="D350" t="str">
+        <f t="shared" si="1"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A351" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Волчица и пряности / Wolf and Spice. Том 6',</v>
+      </c>
+      <c r="B351" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_volchitsa_i_pryanosti_wolf_and_spice_tom_6_55650/',</v>
+      </c>
+      <c r="C351" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/708/manga-volchitsa-i-pryanosti-wolf-and-spice-tom-6.jpg',</v>
+      </c>
+      <c r="D351" t="str">
+        <f t="shared" si="1"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A352" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Илегенес. Генетический Содом / The Genetic Sodom Ilegenes. Том 1',</v>
+      </c>
+      <c r="B352" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_ilegenes_geneticheskiy_sodom_the_genetic_sodom_ilegenes_tom_1_40260/',</v>
+      </c>
+      <c r="C352" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/dd5/manga-ilegenes-geneticheskiy-sodom-the-genetic-sodom-ilegenes-tom-1.jpg',</v>
+      </c>
+      <c r="D352" t="str">
+        <f t="shared" si="1"/>
+        <v>'240 руб.',</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A353" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Чобиты / Chobits Том. 3',</v>
+      </c>
+      <c r="B353" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_chobity_chobits_tom_3_39319/',</v>
+      </c>
+      <c r="C353" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/d2c/manga-chobity-chobits-tom-3.jpg',</v>
+      </c>
+      <c r="D353" t="str">
+        <f t="shared" si="1"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A354" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Гримм манга. Том 2',</v>
+      </c>
+      <c r="B354" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_grimm_manga_tom_2_38658/',</v>
+      </c>
+      <c r="C354" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/8e8/manga-grimm-manga-tom-2.jpg',</v>
+      </c>
+      <c r="D354" t="str">
+        <f t="shared" si="1"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A355" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Чобиты / Chobits Том. 2',</v>
+      </c>
+      <c r="B355" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_chobity_chobits_tom_2_35877/',</v>
+      </c>
+      <c r="C355" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/87b/manga-chobity-chobits-tom-2.jpg',</v>
+      </c>
+      <c r="D355" t="str">
+        <f t="shared" si="1"/>
+        <v>'340 руб.',</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A356" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Чобиты / Chobits Том. 1',</v>
+      </c>
+      <c r="B356" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_chobity_chobits_tom_1_32093/',</v>
+      </c>
+      <c r="C356" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/242/manga-chobity-chobits-tom-1.jpg',</v>
+      </c>
+      <c r="D356" t="str">
+        <f t="shared" si="1"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A357" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Печальная песнь агнца / Lament of the Lamb. Том 1',</v>
+      </c>
+      <c r="B357" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_pechalnaya_pesn_agntsa_lament_of_the_lamb_tom_1_24584/',</v>
+      </c>
+      <c r="C357" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/e10/manga-pechalnaya-pesn-agntsa-lament-of-the-lamb-tom-1.jpg',</v>
+      </c>
+      <c r="D357" t="str">
+        <f t="shared" si="1"/>
+        <v>'110 руб.',</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A358" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Падшая луна',</v>
+      </c>
+      <c r="B358" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_padshaya_luna_20720/',</v>
+      </c>
+      <c r="C358" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/ff2/manga-padshaya-luna.jpg',</v>
+      </c>
+      <c r="D358" t="str">
+        <f t="shared" si="1"/>
+        <v>'340 руб.',</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A359" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Лучший любовник. Том 2',</v>
+      </c>
+      <c r="B359" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_luchshiy_lyubovnik_tom_2_19743/',</v>
+      </c>
+      <c r="C359" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/735/manga-luchshiy-lyubovnik-tom-2.jpg',</v>
+      </c>
+      <c r="D359" t="str">
+        <f t="shared" si="1"/>
+        <v>'240 руб.',</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A360" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Лучший любовник. Том 1',</v>
+      </c>
+      <c r="B360" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_luchshiy_lyubovnik_tom_1_19742/',</v>
+      </c>
+      <c r="C360" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/dbb/manga-luchshiy-lyubovnik-tom-1.jpg',</v>
+      </c>
+      <c r="D360" t="str">
+        <f t="shared" si="1"/>
+        <v>'310 руб.',</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A361" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Свобода, свобода!',</v>
+      </c>
+      <c r="B361" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_svoboda_svoboda_15639/',</v>
+      </c>
+      <c r="C361" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/8f4/manga-svoboda-svoboda.jpg',</v>
+      </c>
+      <c r="D361" t="str">
+        <f t="shared" si="1"/>
+        <v>'310 руб.',</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A362" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Кафе Таро / Tarot Cafe. Том 1',</v>
+      </c>
+      <c r="B362" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_kafe_taro_tarot_cafe_tom_1_9250/',</v>
+      </c>
+      <c r="C362" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/64d/manga-kafe-taro-tarot-cafe-tom-1.jpg',</v>
+      </c>
+      <c r="D362" t="str">
+        <f t="shared" si="1"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A363" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Моя геройская академия. Книга 5 / My Hero Academia. Том 5',</v>
+      </c>
+      <c r="B363" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_moya_geroyskaya_akademiya_kniga_5_my_hero_academia_tom_5_570045/',</v>
+      </c>
+      <c r="C363" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/9f7/manga-moya-geroyskaya-akademiya-kniga-5-my-hero-academia-tom-5.jpg',</v>
+      </c>
+      <c r="D363" t="str">
+        <f t="shared" si="1"/>
+        <v>'550 руб.',</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A364" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга У меня мало друзей / I Don't Have Many Friends. Том 17',</v>
+      </c>
+      <c r="B364" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_u_menya_malo_druzey_i_don_t_have_many_friends_tom_17_561294/',</v>
+      </c>
+      <c r="C364" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/5fc/manga-u-menya-malo-druzey-i-don-t-have-many-friends-tom-17.jpeg',</v>
+      </c>
+      <c r="D364" t="str">
+        <f t="shared" si="1"/>
+        <v>'300 руб.',</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A365" t="str">
+        <f t="shared" si="2"/>
+        <v>'Семь смертных грехов. Том 4 / Nanatsu no Taizai. Vol. 7 + Vol. 8',</v>
+      </c>
+      <c r="B365" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/sem_smertnykh_grekhov_tom_4_nanatsu_no_taizai_vol_7_vol_8_561292/',</v>
+      </c>
+      <c r="C365" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/bb5/sem-smertnykh-grekhov-tom-4-nanatsu-no-taizai-vol-7-vol-8.jpeg',</v>
+      </c>
+      <c r="D365" t="str">
+        <f t="shared" si="1"/>
+        <v>'580 руб.',</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A366" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Восхождение Героя Щита / Tate no Yuusha no Nariagari. Том 13',</v>
+      </c>
+      <c r="B366" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_voskhozhdenie_geroya_shchita_tate_no_yuusha_no_nariagari_tom_13_561283/',</v>
+      </c>
+      <c r="C366" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/8d9/manga-voskhozhdenie-geroya-shchita-tate-no-yuusha-no-nariagari-tom-13.jpeg',</v>
+      </c>
+      <c r="D366" t="str">
+        <f t="shared" si="1"/>
+        <v>'330 руб.',</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A367" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Восхождение Героя Щита / Tate no Yuusha no Nariagari. Том 12',</v>
+      </c>
+      <c r="B367" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_voskhozhdenie_geroya_shchita_tate_no_yuusha_no_nariagari_tom_13_561281/',</v>
+      </c>
+      <c r="C367" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/448/manga-voskhozhdenie-geroya-shchita-tate-no-yuusha-no-nariagari-tom-12.jpeg',</v>
+      </c>
+      <c r="D367" t="str">
+        <f t="shared" si="1"/>
+        <v>'330 руб.',</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A368" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Бакуман / Bakuman. Том 9',</v>
+      </c>
+      <c r="B368" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_bakuman_bakuman_tom_9_560169/',</v>
+      </c>
+      <c r="C368" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/2e7/manga-bakuman-bakuman-tom-9.jpeg',</v>
+      </c>
+      <c r="D368" t="str">
+        <f t="shared" si="1"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A369" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Ванпанчмен / One Punch Man Книга 9. Тома 17 и 18',</v>
+      </c>
+      <c r="B369" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_vanpanchmen_one_punch_man_kniga_9_toma_17_i_18_560163/',</v>
+      </c>
+      <c r="C369" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/528/manga-vanpanchmen-one-punch-man-kniga-9-toma-17-i-18.jpeg',</v>
+      </c>
+      <c r="D369" t="str">
+        <f t="shared" si="1"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A370" t="str">
+        <f t="shared" si="2"/>
+        <v>'One Piece. Большой куш. Книга 4',</v>
+      </c>
+      <c r="B370" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/one_piece_bolshoy_kush_kniga_4_560161/',</v>
+      </c>
+      <c r="C370" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/3c6/one-piece-bolshoy-kush-kniga-4.jpeg',</v>
+      </c>
+      <c r="D370" t="str">
+        <f t="shared" si="1"/>
+        <v>'660 руб.',</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A371" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Призрак в доспехах / Ghost in the Shell. Том 1',</v>
+      </c>
+      <c r="B371" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_prizrak_v_dospekhakh_ghost_in_the_shell_tom_1/',</v>
+      </c>
+      <c r="C371" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/dba/manga-prizrak-v-dospekhakh-ghost-in-the-shell-tom-1.jpg',</v>
+      </c>
+      <c r="D371" t="str">
+        <f t="shared" si="1"/>
+        <v>'870 руб.',</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A372" t="str">
+        <f t="shared" si="2"/>
+        <v>'Манга Восхождение Героя Щита / Tate no Yuusha no Nariagari. Том 11',</v>
+      </c>
+      <c r="B372" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/catalog/manga_voskhozhdenie_geroya_shchita_tate_no_yuusha_no_nariagari_tom_11/',</v>
+      </c>
+      <c r="C372" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>'https://diskomir.ru/upload/iblock/16f/manga-voskhozhdenie-geroya-shchita-tate-no-yuusha-no-nariagari-tom-11.jpeg',</v>
+      </c>
+      <c r="D372" t="str">
+        <f t="shared" si="2"/>
+        <v>'330 руб.',</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A373" t="str">
+        <f t="shared" ref="A373:D436" si="3">"'"&amp;A131:A131&amp;"',"</f>
+        <v>'Семь смертных грехов. Том 3 / Nanatsu no Taizai. Vol. 5 + Vol. 6',</v>
+      </c>
+      <c r="B373" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/sem_smertnykh_grekhov_tom_3_nanatsu_no_taizai_vol_5_vol_6/',</v>
+      </c>
+      <c r="C373" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/72d/sem-smertnykh-grekhov-tom-3-nanatsu-no-taizai-vol-5-vol-6.jpeg',</v>
+      </c>
+      <c r="D373" t="str">
+        <f t="shared" si="3"/>
+        <v>'580 руб.',</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A374" t="str">
+        <f t="shared" si="3"/>
+        <v>'Семь смертных грехов. Том 2 / Nanatsu no Taizai. Vol. 3 + Vol. 4',</v>
+      </c>
+      <c r="B374" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/sem_smertnykh_grekhov_tom_2_nanatsu_no_taizai_vol_3_vol_4/',</v>
+      </c>
+      <c r="C374" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/9c7/sem-smertnykh-grekhov-tom-2-nanatsu-no-taizai-vol-3-vol-4.jpeg',</v>
+      </c>
+      <c r="D374" t="str">
+        <f t="shared" si="3"/>
+        <v>'580 руб.',</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A375" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Страна чудес смертников / Deadman Wonderland. Том 4',</v>
+      </c>
+      <c r="B375" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_strana_chudes_smertnikov_deadman_wonderland_tom_4_556478/',</v>
+      </c>
+      <c r="C375" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/633/manga-strana-chudes-smertnikov-deadman-wonderland-tom-4.jpeg',</v>
+      </c>
+      <c r="D375" t="str">
+        <f t="shared" si="3"/>
+        <v>'340 руб.',</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A376" t="str">
+        <f t="shared" si="3"/>
+        <v>'Ранобэ Токийский гуль. Пустота / Tokyo Ghoul. Emptiness',</v>
+      </c>
+      <c r="B376" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/ranobe_tokiyskiy_gul_pustota_tokyo_ghoul_emptiness_549313/',</v>
+      </c>
+      <c r="C376" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/338/ranobe-tokiyskiy-gul-pustota-tokyo-ghoul-emptiness.JPG',</v>
+      </c>
+      <c r="D376" t="str">
+        <f t="shared" si="3"/>
+        <v>'480 руб.',</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A377" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Город, где вечером стихает ветер. Страна где расцветает сакура',</v>
+      </c>
+      <c r="B377" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_gorod_gde_vecherom_stikhaet_veter_strana_gde_rastsvetaet_sakura_549179/',</v>
+      </c>
+      <c r="C377" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/7cd/manga-gorod-gde-vecherom-stikhaet-veter-strana-gde-rastsvetaet-sakura.jpg',</v>
+      </c>
+      <c r="D377" t="str">
+        <f t="shared" si="3"/>
+        <v>'380 руб.',</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A378" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга О моём перерождении в слизь / Tensei Shitara Slime datta ken. Том 2',</v>
+      </c>
+      <c r="B378" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_o_moyem_pererozhdenii_v_sliz_tensei_shitara_slime_datta_ken_tom_2_549178/',</v>
+      </c>
+      <c r="C378" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/ce3/manga-o-moyem-pererozhdenii-v-sliz-tensei-shitara-slime-datta-ken-tom-2.jpg',</v>
+      </c>
+      <c r="D378" t="str">
+        <f t="shared" si="3"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A379" t="str">
+        <f t="shared" si="3"/>
+        <v>'Дневник моих исчезновений',</v>
+      </c>
+      <c r="B379" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_dnevnik_moikh_ischeznoveniy_574732/',</v>
+      </c>
+      <c r="C379" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/e6a/manga-dnevnik-moikh-ischeznoveniy.jpg',</v>
+      </c>
+      <c r="D379" t="str">
+        <f t="shared" si="3"/>
+        <v>'480 руб.',</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A380" t="str">
+        <f t="shared" si="3"/>
+        <v>'Дневник будущего Том 12',</v>
+      </c>
+      <c r="B380" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_dnevnik_budushchego_future_diary_mirai_nikki_tom_11_574730/',</v>
+      </c>
+      <c r="C380" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/2d2/manga-dnevnik-budushchego-future-diary-mirai-nikki-tom-12.jpg',</v>
+      </c>
+      <c r="D380" t="str">
+        <f t="shared" si="3"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A381" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Дневник Будущего / Future Diary Mirai Nikki. Том 11',</v>
+      </c>
+      <c r="B381" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_dnevnik_budushchego_future_diary_mirai_nikki_tom_11_549175/',</v>
+      </c>
+      <c r="C381" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/b8b/manga-dnevnik-budushchego-future-diary-mirai-nikki-tom-11.jpg',</v>
+      </c>
+      <c r="D381" t="str">
+        <f t="shared" si="3"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A382" t="str">
+        <f t="shared" si="3"/>
+        <v>'Староста-горничная! Том 7',</v>
+      </c>
+      <c r="B382" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_starosta_gornichnaya_the_student_council_president_is_a_maid_tom_7_574900/',</v>
+      </c>
+      <c r="C382" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/087/manga-starosta-gornichnaya-the-student-council-president-is-a-maid-tom-7.jpeg',</v>
+      </c>
+      <c r="D382" t="str">
+        <f t="shared" si="3"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A383" t="str">
+        <f t="shared" si="3"/>
+        <v>'Староста-горничная! Том 6',</v>
+      </c>
+      <c r="B383" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_starosta_gornichnaya_the_student_council_president_is_a_maid_tom_6_574899/',</v>
+      </c>
+      <c r="C383" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/288/manga-starosta-gornichnaya-the-student-council-president-is-a-maid-tom-6.jpeg',</v>
+      </c>
+      <c r="D383" t="str">
+        <f t="shared" si="3"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A384" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Староста-горничная! / The Student Council President is a Maid! Том 5',</v>
+      </c>
+      <c r="B384" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_starosta_gornichnaya_the_student_council_president_is_a_maid_tom_5_549170/',</v>
+      </c>
+      <c r="C384" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/8a4/manga-starosta-gornichnaya-the-student-council-president-is-a-maid-tom-5.jpg',</v>
+      </c>
+      <c r="D384" t="str">
+        <f t="shared" si="3"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A385" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Orange. Том 2',</v>
+      </c>
+      <c r="B385" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_orange_tom_2_547583/',</v>
+      </c>
+      <c r="C385" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/fda/manga-orange-tom-2.JPG',</v>
+      </c>
+      <c r="D385" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A386" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Отныне нас четыре сестры / Kyou Kara Yonshimai. Том 3',</v>
+      </c>
+      <c r="B386" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_otnyne_nas_chetyre_sestry_kyou_kara_yonshimai_tom_3_547187/',</v>
+      </c>
+      <c r="C386" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/239/manga-otnyne-nas-chetyre-sestry-kyou-kara-yonshimai-tom-3.JPG',</v>
+      </c>
+      <c r="D386" t="str">
+        <f t="shared" si="3"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A387" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Отныне нас четыре сестры / Kyou Kara Yonshimai. Том 2',</v>
+      </c>
+      <c r="B387" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_otnyne_nas_chetyre_sestry_kyou_kara_yonshimai_tom_2_547186/',</v>
+      </c>
+      <c r="C387" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/cbe/manga-otnyne-nas-chetyre-sestry-kyou-kara-yonshimai-tom-2.JPG',</v>
+      </c>
+      <c r="D387" t="str">
+        <f t="shared" si="3"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A388" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Соити / Soichi',</v>
+      </c>
+      <c r="B388" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_soiti_soichi_547176/',</v>
+      </c>
+      <c r="C388" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/a6d/manga-soiti-soichi.JPG',</v>
+      </c>
+      <c r="D388" t="str">
+        <f t="shared" si="3"/>
+        <v>'730 руб.',</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A389" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Дневник Будущего / Future Diary Mirai Nikki. Том 7',</v>
+      </c>
+      <c r="B389" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_dnevnik_budushchego_future_diary_mirai_nikki_tom_7_545208/',</v>
+      </c>
+      <c r="C389" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/5d2/manga-dnevnik-budushchego-future-diary-mirai-nikki-tom-7.jpg',</v>
+      </c>
+      <c r="D389" t="str">
+        <f t="shared" si="3"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A390" t="str">
+        <f t="shared" si="3"/>
+        <v>'Ведьмина служба доставки. Книга 2. Кики и новое колдовство',</v>
+      </c>
+      <c r="B390" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/vedmina_sluzhba_dostavki_kniga_2_kiki_i_novoe_koldovstvo_544991/',</v>
+      </c>
+      <c r="C390" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/8f9/vedmina-sluzhba-dostavki-kniga-2-kiki-i-novoe-koldovstvo.jpg',</v>
+      </c>
+      <c r="D390" t="str">
+        <f t="shared" si="3"/>
+        <v>'290 руб.',</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A391" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Orange. Том 1',</v>
+      </c>
+      <c r="B391" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_orange_tom_1_543110/',</v>
+      </c>
+      <c r="C391" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/57f/manga-orange-tom-1.jpg',</v>
+      </c>
+      <c r="D391" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A392" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Милый Дом Чи. Том 2',</v>
+      </c>
+      <c r="B392" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_milyy_dom_chi_tom_2_538456/',</v>
+      </c>
+      <c r="C392" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/f27/manga-milyy-dom-chi-tom-2.jpg',</v>
+      </c>
+      <c r="D392" t="str">
+        <f t="shared" si="3"/>
+        <v>'340 руб.',</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A393" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Стальной Алхимик. Книга 4 / Fullmetal Alchemist. Vol. 4',</v>
+      </c>
+      <c r="B393" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_stalnoy_alkhimik_kniga_4_fullmetal_alchemist_vol_4_537978/',</v>
+      </c>
+      <c r="C393" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/9d5/manga-stalnoy-alkhimik-kniga-4-fullmetal-alchemist-vol-4.jpg',</v>
+      </c>
+      <c r="D393" t="str">
+        <f t="shared" si="3"/>
+        <v>'700 руб.',</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A394" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Ванпанчмен / One Punch Man Книга 6. Тома 11 и 12',</v>
+      </c>
+      <c r="B394" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_vanpanchmen_one_punch_man_kniga_6_toma_11_i_12_537081/',</v>
+      </c>
+      <c r="C394" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/a2c/manga-vanpanchmen-one-punch-man-kniga-6-toma-11-i-12.jpg',</v>
+      </c>
+      <c r="D394" t="str">
+        <f t="shared" si="3"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A395" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Страна чудес смертников / Deadman Wonderland. Том 2',</v>
+      </c>
+      <c r="B395" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_strana_chudes_smertnikov_deadman_wonderland_tom_2_536902/',</v>
+      </c>
+      <c r="C395" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/bfb/manga-strana-chudes-smertnikov-deadman-wonderland-tom-2.jpg',</v>
+      </c>
+      <c r="D395" t="str">
+        <f t="shared" si="3"/>
+        <v>'340 руб.',</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A396" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Нелюдь / Ajin. Том 9',</v>
+      </c>
+      <c r="B396" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_nelyud_ajin_tom_9_536898/',</v>
+      </c>
+      <c r="C396" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/50d/manga-nelyud-ajin-tom-9.jpg',</v>
+      </c>
+      <c r="D396" t="str">
+        <f t="shared" si="3"/>
+        <v>'330 руб.',</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A397" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Город, в котором меня нет / Boku dake ga Inai Machi. Том 5',</v>
+      </c>
+      <c r="B397" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_gorod_v_kotorom_menya_net_boku_dake_ga_inai_machi_tom_5_534102/',</v>
+      </c>
+      <c r="C397" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/896/manga-gorod-v-kotorom-menya-net-boku-dake-ga-inai-machi-tom-5.jpg',</v>
+      </c>
+      <c r="D397" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A398" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Дневник Будущего / Future Diary Mirai Nikki. Том 6',</v>
+      </c>
+      <c r="B398" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_dnevnik_budushchego_future_diary_mirai_nikki_tom_6_534085/',</v>
+      </c>
+      <c r="C398" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/aec/manga-dnevnik-budushchego-future-diary-mirai-nikki-tom-6.jpg',</v>
+      </c>
+      <c r="D398" t="str">
+        <f t="shared" si="3"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A399" t="str">
+        <f t="shared" si="3"/>
+        <v>'Хвост Феи / Fairy Tail. Том 6',</v>
+      </c>
+      <c r="B399" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/khvost_fei_fairy_tail_tom_6_533063/',</v>
+      </c>
+      <c r="C399" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/205/khvost-fei-fairy-tail-tom-6.jpg',</v>
+      </c>
+      <c r="D399" t="str">
+        <f t="shared" si="3"/>
+        <v>'370 руб.',</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A400" t="str">
+        <f t="shared" si="3"/>
+        <v>'Хвост Феи / Fairy Tail. Том 5',</v>
+      </c>
+      <c r="B400" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/khvost_fei_fairy_tail_tom_5_533062/',</v>
+      </c>
+      <c r="C400" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/dbb/khvost-fei-fairy-tail-tom-5.jpg',</v>
+      </c>
+      <c r="D400" t="str">
+        <f t="shared" si="3"/>
+        <v>'370 руб.',</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A401" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Ванпанчмен / One Punch Man. Книга 5. Тома 9 и 10',</v>
+      </c>
+      <c r="B401" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_vanpanchmen_one_punch_man_kniga_5_toma_9_i_10_530193/',</v>
+      </c>
+      <c r="C401" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/9bb/manga-vanpanchmen-one-punch-man-kniga-5-toma-9-i-10.jpg',</v>
+      </c>
+      <c r="D401" t="str">
+        <f t="shared" si="3"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A402" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Девочка из Чужеземья / Totsuku ni no Shjo. Том 5',</v>
+      </c>
+      <c r="B402" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_devochka_iz_chuzhezemya_totsuku_ni_no_shjo_tom_5_529974/',</v>
+      </c>
+      <c r="C402" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/9a3/manga-devochka-iz-chuzhezemya-totsuku-ni-no-shjo-tom-5.jpg',</v>
+      </c>
+      <c r="D402" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A403" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Записки о лечении волшебных зверей / How to Treat Magical Beasts. Том 3',</v>
+      </c>
+      <c r="B403" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_zapiski_o_lechenii_volshebnykh_zverey_how_to_treat_magical_beasts_tom_3_529972/',</v>
+      </c>
+      <c r="C403" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/1ce/manga-zapiski-o-lechenii-volshebnykh-zverey-how-to-treat-magical-beasts-tom-3.jpg',</v>
+      </c>
+      <c r="D403" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A404" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Торадора! / Toradora! Том 5',</v>
+      </c>
+      <c r="B404" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_toradora_toradora_tom_5_524915/',</v>
+      </c>
+      <c r="C404" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/251/manga-toradora-toradora-tom-5.jpg',</v>
+      </c>
+      <c r="D404" t="str">
+        <f t="shared" si="3"/>
+        <v>'240 руб.',</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A405" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Очень приятно, Бог / Kamisama Hajimemashita. Том 5',</v>
+      </c>
+      <c r="B405" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_ochen_priyatno_bog_kamisama_hajimemashita_tom_5_524452/',</v>
+      </c>
+      <c r="C405" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/9fb/manga-ochen-priyatno-bog-kamisama-hajimemashita-tom-5.jpg',</v>
+      </c>
+      <c r="D405" t="str">
+        <f t="shared" si="3"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A406" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Очень приятно, Бог / Kamisama Hajimemashita. Том 4',</v>
+      </c>
+      <c r="B406" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_ochen_priyatno_bog_kamisama_hajimemashita_tom_4_524451/',</v>
+      </c>
+      <c r="C406" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/2ec/manga-ochen-priyatno-bog-kamisama-hajimemashita-tom-4.jpg',</v>
+      </c>
+      <c r="D406" t="str">
+        <f t="shared" si="3"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A407" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Девочка из Чужеземья / Totsuku ni no Shjo. Том 4',</v>
+      </c>
+      <c r="B407" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_devochka_iz_chuzhezemya_totsuku_ni_no_shjo_tom_4_524444/',</v>
+      </c>
+      <c r="C407" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/a49/manga-devochka-iz-chuzhezemya-totsuku-ni-no-shjo-tom-4.jpg',</v>
+      </c>
+      <c r="D407" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A408" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Записки о лечении волшебных зверей / How to Treat Magical Beasts. Том 1',</v>
+      </c>
+      <c r="B408" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_zapiski_o_lechenii_volshebnykh_zverey_how_to_treat_magical_beasts_tom_1_524440/',</v>
+      </c>
+      <c r="C408" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/c1c/manga-zapiski-o-lechenii-volshebnykh-zverey-how-to-treat-magical-beasts-tom-1.jpg',</v>
+      </c>
+      <c r="D408" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A409" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Sword Art Online: Progressive. Том 1',</v>
+      </c>
+      <c r="B409" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_sword_art_online_progressive_tom_1_524436/',</v>
+      </c>
+      <c r="C409" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/4cc/manga-sword-art-online-progressive-tom-1.jpg',</v>
+      </c>
+      <c r="D409" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A410" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Ванпанчмен / One Punch Man Книга 4. Тома 7 и 8',</v>
+      </c>
+      <c r="B410" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_vanpanchmen_one_punch_man_kniga_4_toma_7_i_8_523834/',</v>
+      </c>
+      <c r="C410" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/4fa/manga-vanpanchmen-one-punch-man-kniga-4-toma-7-i-8.jpg',</v>
+      </c>
+      <c r="D410" t="str">
+        <f t="shared" si="3"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A411" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Токийский гуль / Tokyo Ghoul Книга 3. Тома 5 и 6',</v>
+      </c>
+      <c r="B411" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_tokiyskiy_gul_tokyo_ghoul_kniga_3_toma_5_i_6_523833/',</v>
+      </c>
+      <c r="C411" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/6b5/manga-tokiyskiy-gul-tokyo-ghoul-kniga-3-toma-5-i-6.jpg',</v>
+      </c>
+      <c r="D411" t="str">
+        <f t="shared" si="3"/>
+        <v>'580 руб.',</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A412" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Ванпанчмен / One Punch Man Книга 3. Тома 5 и 6',</v>
+      </c>
+      <c r="B412" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_vanpanchmen_one_punch_man_kniga_3_toma_5_i_6_516626/',</v>
+      </c>
+      <c r="C412" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/acd/manga-vanpanchmen-one-punch-man-kniga-3-toma-5-i-6.jpg',</v>
+      </c>
+      <c r="D412" t="str">
+        <f t="shared" si="3"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A413" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Илегенес. Симфония лжи / Ilegenes. Giyoku no Koukyoukyoku. Том 1',</v>
+      </c>
+      <c r="B413" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_ilegenes_simfoniya_lzhi_ilegenes_giyoku_no_koukyoukyoku_tom_1_515664/',</v>
+      </c>
+      <c r="C413" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/e02/manga-ilegenes-simfoniya-lzhi-ilegenes-giyoku-no-koukyoukyoku-tom-1.jpg',</v>
+      </c>
+      <c r="D413" t="str">
+        <f t="shared" si="3"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A414" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Очень приятно, Бог / Kamisama Hajimemashita. Том 1',</v>
+      </c>
+      <c r="B414" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_ochen_priyatno_bog_kamisama_hajimemashita_tom_1_509489/',</v>
+      </c>
+      <c r="C414" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/f2f/manga-ochen-priyatno-bog-kamisama-hajimemashita-tom-1.jpg',</v>
+      </c>
+      <c r="D414" t="str">
+        <f t="shared" si="3"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A415" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Твоё имя / Kimi no Na wa. Том 3',</v>
+      </c>
+      <c r="B415" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_tvoye_imya_kimi_no_na_wa_tom_3_505112/',</v>
+      </c>
+      <c r="C415" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/294/manga-tvoye-imya-kimi-no-na-wa-tom-3.jpg',</v>
+      </c>
+      <c r="D415" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A416" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Твоё имя / Kimi no Na wa. Том 2',</v>
+      </c>
+      <c r="B416" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_tvoye_imya_kimi_no_na_wa_tom_2_505111/',</v>
+      </c>
+      <c r="C416" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/5f9/manga-tvoye-imya-kimi-no-na-wa-tom-2.jpg',</v>
+      </c>
+      <c r="D416" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A417" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Твоё имя / Kimi no Na wa. Том 1',</v>
+      </c>
+      <c r="B417" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_tvoye_imya_kimi_no_na_wa_tom_1_505110/',</v>
+      </c>
+      <c r="C417" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/8d5/manga-tvoye-imya-kimi-no-na-wa-tom-1.jpg',</v>
+      </c>
+      <c r="D417" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A418" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Форма голоса / Koe no Katachi. Том 6',</v>
+      </c>
+      <c r="B418" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_forma_golosa_koe_no_katachi_tom_6_505034/',</v>
+      </c>
+      <c r="C418" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/c72/manga-forma-golosa-koe-no-katachi-tom-6.jpg',</v>
+      </c>
+      <c r="D418" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A419" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Форма голоса / Koe no Katachi. Том 5',</v>
+      </c>
+      <c r="B419" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_forma_golosa_koe_no_katachi_tom_5_505033/',</v>
+      </c>
+      <c r="C419" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/a54/manga-forma-golosa-koe-no-katachi-tom-5.jpg',</v>
+      </c>
+      <c r="D419" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A420" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Ванпанчмен / One Punch Man Книга 2. Тома 3 и 4',</v>
+      </c>
+      <c r="B420" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_vanpanchmen_one_punch_man_kniga_2_toma_3_i_4_498404/',</v>
+      </c>
+      <c r="C420" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/69a/manga-vanpanchmen-one-punch-man-kniga-2-toma-3-i-4.jpg',</v>
+      </c>
+      <c r="D420" t="str">
+        <f t="shared" si="3"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A421" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Ну не может моя сестренка быть такой милой. Том 4',</v>
+      </c>
+      <c r="B421" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_nu_ne_mozhet_moya_sestrenka_byt_takoy_miloy_tom_4_491628/',</v>
+      </c>
+      <c r="C421" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/ae4/manga-nu-ne-mozhet-moya-sestrenka-byt-takoy-miloy-tom-4.jpg',</v>
+      </c>
+      <c r="D421" t="str">
+        <f t="shared" si="3"/>
+        <v>'290 руб.',</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A422" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Ну не может моя сестренка быть такой милой. Том 3',</v>
+      </c>
+      <c r="B422" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_nu_ne_mozhet_moya_sestrenka_byt_takoy_miloy_tom_3_491627/',</v>
+      </c>
+      <c r="C422" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/1fd/manga-nu-ne-mozhet-moya-sestrenka-byt-takoy-miloy-tom-3.jpg',</v>
+      </c>
+      <c r="D422" t="str">
+        <f t="shared" si="3"/>
+        <v>'290 руб.',</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A423" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Ну не может моя сестренка быть такой милой. Том 2',</v>
+      </c>
+      <c r="B423" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_nu_ne_mozhet_moya_sestrenka_byt_takoy_miloy_tom_2_491626/',</v>
+      </c>
+      <c r="C423" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/8ba/manga-nu-ne-mozhet-moya-sestrenka-byt-takoy-miloy-tom-2.jpg',</v>
+      </c>
+      <c r="D423" t="str">
+        <f t="shared" si="3"/>
+        <v>'290 руб.',</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A424" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Ванпанчмен / One Punch Man Книга 1. Тома 1 и 2',</v>
+      </c>
+      <c r="B424" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_vanpanchmen_one_punch_man_kniga_1_toma_1_i_2_489142/',</v>
+      </c>
+      <c r="C424" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/e92/manga-vanpanchmen-one-punch-man-kniga-1-toma-1-i-2.jpg',</v>
+      </c>
+      <c r="D424" t="str">
+        <f t="shared" si="3"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A425" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Шерлок. Том 2',</v>
+      </c>
+      <c r="B425" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_sherlok_tom_2_462609/',</v>
+      </c>
+      <c r="C425" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/d81/manga-sherlok-tom-2.jpg',</v>
+      </c>
+      <c r="D425" t="str">
+        <f t="shared" si="3"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A426" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Blame! Том 1',</v>
+      </c>
+      <c r="B426" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_blame_tom_1_457737/',</v>
+      </c>
+      <c r="C426" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/106/manga-blame-tom-1.jpg',</v>
+      </c>
+      <c r="D426" t="str">
+        <f t="shared" si="3"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A427" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Бездомный Бог / Noragami. Том 5',</v>
+      </c>
+      <c r="B427" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_bezdomnyy_bog_noragami_tom_5_450793/',</v>
+      </c>
+      <c r="C427" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/6bc/manga-bezdomnyy-bog-noragami-tom-5.jpg',</v>
+      </c>
+      <c r="D427" t="str">
+        <f t="shared" si="3"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A428" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Ничего особенного / Nothing Special',</v>
+      </c>
+      <c r="B428" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_nichego_osobennogo_nothing_special_402695/',</v>
+      </c>
+      <c r="C428" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/531/manga-nichego-osobennogo-nothing-special.jpg',</v>
+      </c>
+      <c r="D428" t="str">
+        <f t="shared" si="3"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A429" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Невеста чародея / Mahou Tsukai no Yome: Hoshi Matsu Hito. Том 1',</v>
+      </c>
+      <c r="B429" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_nevesta_charodeya_mahou_tsukai_no_yome_hoshi_matsu_hito_tom_1_375526/',</v>
+      </c>
+      <c r="C429" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/546/manga-nevesta-charodeya-mahou-tsukai-no-yome-hoshi-matsu-hito-tom-1.jpg',</v>
+      </c>
+      <c r="D429" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A430" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Бакуман / Bakuman. Том 1',</v>
+      </c>
+      <c r="B430" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_bakuman_bakuman_tom_1_375515/',</v>
+      </c>
+      <c r="C430" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/4d1/manga-bakuman-bakuman-tom-1.jpg',</v>
+      </c>
+      <c r="D430" t="str">
+        <f t="shared" si="3"/>
+        <v>'520 руб.',</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A431" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Грань будущего / All You Need Is Kill. Том 1',</v>
+      </c>
+      <c r="B431" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_gran_budushchego_all_you_need_is_kill_tom_1_374115/',</v>
+      </c>
+      <c r="C431" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/0c7/manga-gran-budushchego-all-you-need-is-kill-tom-1.jpg',</v>
+      </c>
+      <c r="D431" t="str">
+        <f t="shared" si="3"/>
+        <v>'365 руб.',</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A432" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Восхождение Героя Щита / Tate no Yuusha no Nariagari. Том 1',</v>
+      </c>
+      <c r="B432" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_voskhozhdenie_geroya_shchita_tate_no_yuusha_no_nariagari_tom_1_370298/',</v>
+      </c>
+      <c r="C432" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/7c8/manga-voskhozhdenie-geroya-shchita-tate-no-yuusha-no-nariagari-tom-1.jpg',</v>
+      </c>
+      <c r="D432" t="str">
+        <f t="shared" si="3"/>
+        <v>'330 руб.',</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A433" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга У меня мало друзей / I Don't Have Many Friends. Том 12',</v>
+      </c>
+      <c r="B433" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_u_menya_malo_druzey_i_don_t_have_many_friends_tom_12_366043/',</v>
+      </c>
+      <c r="C433" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/acf/manga-u-menya-malo-druzey-i-don-t-have-many-friends-tom-12.jpg',</v>
+      </c>
+      <c r="D433" t="str">
+        <f t="shared" si="3"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A434" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Книга снов / Jade of Bango; Book of Dreams. Том 1',</v>
+      </c>
+      <c r="B434" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_kniga_snov_jade_of_bango_book_of_dreams_tom_1_363927/',</v>
+      </c>
+      <c r="C434" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/6f4/manga-kniga-snov-jade-of-bango-book-of-dreams-tom-1.jpg',</v>
+      </c>
+      <c r="D434" t="str">
+        <f t="shared" si="3"/>
+        <v>'190 руб.',</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A435" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Возвращение в море',</v>
+      </c>
+      <c r="B435" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_vozvrashchenie_v_more_361798/',</v>
+      </c>
+      <c r="C435" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/ef6/manga-vozvrashchenie-v-more.jpg',</v>
+      </c>
+      <c r="D435" t="str">
+        <f t="shared" si="3"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A436" t="str">
+        <f t="shared" si="3"/>
+        <v>'Манга Кровь виновного пса / Togainu no Chi. Том 9',</v>
+      </c>
+      <c r="B436" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/catalog/manga_krov_vinovnogo_psa_togainu_no_chi_tom_9_339864/',</v>
+      </c>
+      <c r="C436" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>'https://diskomir.ru/upload/iblock/4f2/manga-krov-vinovnogo-psa-togainu-no-chi-tom-9.jpg',</v>
+      </c>
+      <c r="D436" t="str">
+        <f t="shared" ref="D436:D482" si="4">"'"&amp;D194:D194&amp;"',"</f>
+        <v>'240 руб.',</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A437" t="str">
+        <f t="shared" ref="A437:C483" si="5">"'"&amp;A195:A195&amp;"',"</f>
+        <v>'Манга Гостевой клуб лицея Оран / Ouran High School Host Club. Том 4',</v>
+      </c>
+      <c r="B437" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_gostevoy_klub_litseya_oran_ouran_high_school_host_club_tom_4_339729/',</v>
+      </c>
+      <c r="C437" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/a0f/manga-gostevoy-klub-litseya-oran-ouran-high-school-host-club-tom-4.jpg',</v>
+      </c>
+      <c r="D437" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A438" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Илегенес. Генетический Содом / The Genetic Sodom Ilegenes. Том 5',</v>
+      </c>
+      <c r="B438" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_ilegenes_geneticheskiy_sodom_the_genetic_sodom_ilegenes_tom_5_336897/',</v>
+      </c>
+      <c r="C438" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/6cf/manga-ilegenes-geneticheskiy-sodom-the-genetic-sodom-ilegenes-tom-5.jpg',</v>
+      </c>
+      <c r="D438" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A439" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Илегенес. Генетический Содом / The Genetic Sodom Ilegenes. Том 4',</v>
+      </c>
+      <c r="B439" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_ilegenes_geneticheskiy_sodom_the_genetic_sodom_ilegenes_tom_4_329557/',</v>
+      </c>
+      <c r="C439" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/ca2/manga-ilegenes-geneticheskiy-sodom-the-genetic-sodom-ilegenes-tom-4.jpg',</v>
+      </c>
+      <c r="D439" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A440" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Староста-горничная! / The Student Council President is a Maid!  Том 3',</v>
+      </c>
+      <c r="B440" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_starosta_gornichnaya_the_student_council_president_is_a_maid_tom_3_329556/',</v>
+      </c>
+      <c r="C440" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/c3d/manga-starosta-gornichnaya-the-student-council-president-is-a-maid-tom-3.jpg',</v>
+      </c>
+      <c r="D440" t="str">
+        <f t="shared" si="4"/>
+        <v>'240 руб.',</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A441" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Герой / Hero. Том 2',</v>
+      </c>
+      <c r="B441" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_geroy_hero_tom_2_303230/',</v>
+      </c>
+      <c r="C441" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/d3e/manga-geroy-hero-tom-2.jpg',</v>
+      </c>
+      <c r="D441" t="str">
+        <f t="shared" si="4"/>
+        <v>'105 руб.',</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A442" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Торадора! / Toradora! Том 3',</v>
+      </c>
+      <c r="B442" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_toradora_toradora_tom_3_303229/',</v>
+      </c>
+      <c r="C442" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/e69/manga-toradora-toradora-tom-3.jpg',</v>
+      </c>
+      <c r="D442" t="str">
+        <f t="shared" si="4"/>
+        <v>'240 руб.',</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A443" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Хеталия и страны Оси / Hetalia Axis Powers. Том 6',</v>
+      </c>
+      <c r="B443" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_khetaliya_i_strany_osi_hetalia_axis_powers_tom_6_303227/',</v>
+      </c>
+      <c r="C443" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/f00/manga-khetaliya-i-strany-osi-hetalia-axis-powers-tom-6.jpg',</v>
+      </c>
+      <c r="D443" t="str">
+        <f t="shared" si="4"/>
+        <v>'270 руб.',</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A444" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга У меня мало друзей / I Don't Have Many Friends. Том 9',</v>
+      </c>
+      <c r="B444" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_u_menya_malo_druzey_i_don_t_have_many_friends_tom_9_99658/',</v>
+      </c>
+      <c r="C444" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/922/manga-u-menya-malo-druzey-i-don-t-have-many-friends-tom-9.jpg',</v>
+      </c>
+      <c r="D444" t="str">
+        <f t="shared" si="4"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A445" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Нахальный принц и кошка-несмеяна  / Hentai Ouji to Warawanai Neko. Том 3',</v>
+      </c>
+      <c r="B445" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_nakhalnyy_prints_i_koshka_nesmeyana_hentai_ouji_to_warawanai_neko_tom_3_95809/',</v>
+      </c>
+      <c r="C445" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/64b/manga-nakhalnyy-prints-i-koshka-nesmeyana-hentai-ouji-to-warawanai-neko-tom-3.jpg',</v>
+      </c>
+      <c r="D445" t="str">
+        <f t="shared" si="4"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A446" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Нахальный принц и кошка-несмеяна  / Hentai Ouji to Warawanai Neko. Том 2',</v>
+      </c>
+      <c r="B446" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_nakhalnyy_prints_i_koshka_nesmeyana_hentai_ouji_to_warawanai_neko_tom_2_84979/',</v>
+      </c>
+      <c r="C446" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/0e2/manga-nakhalnyy-prints-i-koshka-nesmeyana-hentai-ouji-to-warawanai-neko-tom-2.jpg',</v>
+      </c>
+      <c r="D446" t="str">
+        <f t="shared" si="4"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A447" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Хеталия и страны Оси / Hetalia Axis Powers. Том 4',</v>
+      </c>
+      <c r="B447" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_khetaliya_i_strany_osi_hetalia_axis_powers_tom_4_71795/',</v>
+      </c>
+      <c r="C447" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/0f3/manga-khetaliya-i-strany-osi-hetalia-axis-powers-tom-4.jpg',</v>
+      </c>
+      <c r="D447" t="str">
+        <f t="shared" si="4"/>
+        <v>'270 руб.',</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A448" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга У меня мало друзей / I Don't Have Many Friends. Том 5',</v>
+      </c>
+      <c r="B448" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_u_menya_malo_druzey_i_don_t_have_many_friends_tom_5_62310/',</v>
+      </c>
+      <c r="C448" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/e2b/manga-u-menya-malo-druzey-i-don-t-have-many-friends-tom-5.jpg',</v>
+      </c>
+      <c r="D448" t="str">
+        <f t="shared" si="4"/>
+        <v>'280 руб.',</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A449" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Чобиты / Chobits Том. 5',</v>
+      </c>
+      <c r="B449" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_chobity_chobits_tom_5_62306/',</v>
+      </c>
+      <c r="C449" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/461/manga-chobity-chobits-tom-5.jpg',</v>
+      </c>
+      <c r="D449" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A450" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Рапсодия "Кофе Латте" / Caff? Latte Rhapsody',</v>
+      </c>
+      <c r="B450" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_rapsodiya_kofe_latte_caff_latte_rhapsody_60506/',</v>
+      </c>
+      <c r="C450" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/81a/manga-rapsodiya-kofe-latte-caff-latte-rhapsody.jpg',</v>
+      </c>
+      <c r="D450" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A451" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга За углом / Ano Kado wo Magatta Tokoro',</v>
+      </c>
+      <c r="B451" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_za_uglom_ano_kado_wo_magatta_tokoro_60505/',</v>
+      </c>
+      <c r="C451" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/b79/manga-za-uglom-ano-kado-wo-magatta-tokoro.jpg',</v>
+      </c>
+      <c r="D451" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A452" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Чобиты / Chobits Том. 4',</v>
+      </c>
+      <c r="B452" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_chobity_chobits_tom_4_58900/',</v>
+      </c>
+      <c r="C452" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/2ee/manga-chobity-chobits-tom-4.jpg',</v>
+      </c>
+      <c r="D452" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A453" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Куклы / Dolls. Том 1',</v>
+      </c>
+      <c r="B453" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_kukly_dolls_tom_1_55459/',</v>
+      </c>
+      <c r="C453" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/29c/manga-kukly-dolls-tom-1.jpg',</v>
+      </c>
+      <c r="D453" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A454" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Чиралити  / Chirality',</v>
+      </c>
+      <c r="B454" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_chiraliti_chirality_54666/',</v>
+      </c>
+      <c r="C454" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/036/manga-chiraliti-chirality.jpg',</v>
+      </c>
+      <c r="D454" t="str">
+        <f t="shared" si="4"/>
+        <v>'850 руб.',</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A455" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Староста-горничная! / The Student Council President is a Maid!  Том 1',</v>
+      </c>
+      <c r="B455" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_starosta_gornichnaya_the_student_council_president_is_a_maid_tom_1_49033/',</v>
+      </c>
+      <c r="C455" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/116/manga-starosta-gornichnaya-the-student-council-president-is-a-maid-tom-1.jpg',</v>
+      </c>
+      <c r="D455" t="str">
+        <f t="shared" si="4"/>
+        <v>'240 руб.',</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A456" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Он и она и их обстоятельства / His and Her Circumstances. Том 3',</v>
+      </c>
+      <c r="B456" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_on_i_ona_i_ikh_obstoyatelstva_his_and_her_circumstances_tom_3_46934/',</v>
+      </c>
+      <c r="C456" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/49b/manga-on-i-ona-i-ikh-obstoyatelstva-his-and-her-circumstances-tom-3.jpg',</v>
+      </c>
+      <c r="D456" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A457" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Илегенес. Генетический Содом / The Genetic Sodom Ilegenes. Том 3',</v>
+      </c>
+      <c r="B457" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_ilegenes_geneticheskiy_sodom_the_genetic_sodom_ilegenes_tom_3_46782/',</v>
+      </c>
+      <c r="C457" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/7e5/manga-ilegenes-geneticheskiy-sodom-the-genetic-sodom-ilegenes-tom-3.jpg',</v>
+      </c>
+      <c r="D457" t="str">
+        <f t="shared" si="4"/>
+        <v>'230 руб.',</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A458" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Он и она и их обстоятельства / His and Her Circumstances. Том 2',</v>
+      </c>
+      <c r="B458" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_on_i_ona_i_ikh_obstoyatelstva_his_and_her_circumstances_tom_2_44905/',</v>
+      </c>
+      <c r="C458" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/1cc/manga-on-i-ona-i-ikh-obstoyatelstva-his-and-her-circumstances-tom-2.jpg',</v>
+      </c>
+      <c r="D458" t="str">
+        <f t="shared" si="4"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A459" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Ателье “Paradise Kiss”. Том 5',</v>
+      </c>
+      <c r="B459" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_atele_paradise_kiss_tom_5_44332/',</v>
+      </c>
+      <c r="C459" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/881/manga-atele-paradise-kiss-tom-5.jpg',</v>
+      </c>
+      <c r="D459" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A460" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Бабочка / Butterfly. Том 1',</v>
+      </c>
+      <c r="B460" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_babochka_butterfly_tom_1_40839/',</v>
+      </c>
+      <c r="C460" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/cdc/manga-babochka-butterfly-tom-1.jpg',</v>
+      </c>
+      <c r="D460" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A461" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Ателье “Paradise Kiss”. Том 2',</v>
+      </c>
+      <c r="B461" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_atele_paradise_kiss_tom_2_35300/',</v>
+      </c>
+      <c r="C461" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/f8d/manga-atele-paradise-kiss-tom-2.JPG',</v>
+      </c>
+      <c r="D461" t="str">
+        <f t="shared" si="4"/>
+        <v>'240 руб.',</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A462" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Отвязная троица / Mitsudo Moe. Том 2',</v>
+      </c>
+      <c r="B462" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_otvyaznaya_troitsa_mitsudo_moe_tom_2_34316/',</v>
+      </c>
+      <c r="C462" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/30a/manga-otvyaznaya-troitsa-mitsudo-moe-tom-2.jpg',</v>
+      </c>
+      <c r="D462" t="str">
+        <f t="shared" si="4"/>
+        <v>'180 руб.',</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A463" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Я не ангел! / I'm No Angel! Том 1',</v>
+      </c>
+      <c r="B463" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_ya_ne_angel_i_m_no_angel_tom_1_32208/',</v>
+      </c>
+      <c r="C463" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/764/manga-ya-ne-angel-i-m-no-angel-tom-1.jpg',</v>
+      </c>
+      <c r="D463" t="str">
+        <f t="shared" si="4"/>
+        <v>'190 руб.',</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A464" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Мой дорогой господин / Ore-sama Darling',</v>
+      </c>
+      <c r="B464" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_moy_dorogoy_gospodin_ore_sama_darling_32094/',</v>
+      </c>
+      <c r="C464" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/006/manga-moy-dorogoy-gospodin-ore-sama-darling.jpg',</v>
+      </c>
+      <c r="D464" t="str">
+        <f t="shared" si="4"/>
+        <v>'310 руб.',</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A465" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Хроники проклятого меча / Chronicles of the Cursed Sword. Том 1',</v>
+      </c>
+      <c r="B465" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_khroniki_proklyatogo_mecha_chronicles_of_the_cursed_sword_tom_1_31971/',</v>
+      </c>
+      <c r="C465" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/198/manga-khroniki-proklyatogo-mecha-chronicles-of-the-cursed-sword-tom-1.jpg',</v>
+      </c>
+      <c r="D465" t="str">
+        <f t="shared" si="4"/>
+        <v>'120 руб.',</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A466" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Отвязная троица / Mitsudo Moe. Том 1',</v>
+      </c>
+      <c r="B466" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_otvyaznaya_troitsa_mitsudo_moe_tom_1_31901/',</v>
+      </c>
+      <c r="C466" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/93d/manga-otvyaznaya-troitsa-mitsudo-moe-tom-1.jpg',</v>
+      </c>
+      <c r="D466" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A467" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Она + она + он / Girl X Girl X Boy',</v>
+      </c>
+      <c r="B467" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_ona_ona_on_girl_x_girl_x_boy_31419/',</v>
+      </c>
+      <c r="C467" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/82c/manga-ona-ona-on-girl-x-girl-x-boy.jpg',</v>
+      </c>
+      <c r="D467" t="str">
+        <f t="shared" si="4"/>
+        <v>'340 руб.',</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A468" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Две стороны Мидзухо / Mizuho Ambivalent. Том 1',</v>
+      </c>
+      <c r="B468" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_dve_storony_midzukho_mizuho_ambivalent_tom_1_24224/',</v>
+      </c>
+      <c r="C468" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/6b0/manga-dve-storony-midzukho-mizuho-ambivalent-tom-1.jpg',</v>
+      </c>
+      <c r="D468" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A469" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Бракованная кукла',</v>
+      </c>
+      <c r="B469" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_brakovannaya_kukla_20730/',</v>
+      </c>
+      <c r="C469" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/f52/manga-brakovannaya-kukla.jpg',</v>
+      </c>
+      <c r="D469" t="str">
+        <f t="shared" si="4"/>
+        <v>'310 руб.',</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A470" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Сны эпохи Тайсё',</v>
+      </c>
+      <c r="B470" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_sny_epokhi_taysye_19549/',</v>
+      </c>
+      <c r="C470" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/796/manga-sny-epokhi-taysye.jpg',</v>
+      </c>
+      <c r="D470" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A471" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Охота за пальцем',</v>
+      </c>
+      <c r="B471" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_okhota_za_paltsem_19452/',</v>
+      </c>
+      <c r="C471" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/14d/manga-okhota-za-paltsem.jpg',</v>
+      </c>
+      <c r="D471" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A472" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Любовь Онлайн / Net Love. Том 1',</v>
+      </c>
+      <c r="B472" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_lyubov_onlayn_net_love_tom_1_19447/',</v>
+      </c>
+      <c r="C472" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/c17/manga-lyubov-onlayn-net-love-tom-1.jpg',</v>
+      </c>
+      <c r="D472" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A473" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Все о нас и т.д.',</v>
+      </c>
+      <c r="B473" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_vse_o_nas_i_t_d_16664/',</v>
+      </c>
+      <c r="C473" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/084/manga-vse-o-nas-i-t-d.jpg',</v>
+      </c>
+      <c r="D473" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A474" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Роскошный Карат Galaxy / Лес священных изваяний',</v>
+      </c>
+      <c r="B474" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_roskoshnyy_karat_galaxy_les_svyashchennykh_izvayaniy_16663/',</v>
+      </c>
+      <c r="C474" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/79a/manga-roskoshnyy-karat-galaxy-les-svyashchennykh-izvayaniy.jpg',</v>
+      </c>
+      <c r="D474" t="str">
+        <f t="shared" si="4"/>
+        <v>'350 руб.',</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A475" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Яростная месть  / Guakushu. Том 1',</v>
+      </c>
+      <c r="B475" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_yarostnaya_mest_guakushu_tom_1_14373/',</v>
+      </c>
+      <c r="C475" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/e1a/manga-yarostnaya-mest-guakushu-tom-1.jpg',</v>
+      </c>
+      <c r="D475" t="str">
+        <f t="shared" si="4"/>
+        <v>'130 руб.',</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A476" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Шоу уродов господина Араси / Dramacon. Том 1',</v>
+      </c>
+      <c r="B476" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_shou_urodov_gospodina_arasi_dramacon_tom_1_14344/',</v>
+      </c>
+      <c r="C476" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/1ad/manga-shou-urodov-gospodina-arasi-dramacon-tom-1.jpg',</v>
+      </c>
+      <c r="D476" t="str">
+        <f t="shared" si="4"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A477" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Юная Королева Джун / Little Queen. Том 1',</v>
+      </c>
+      <c r="B477" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_yunaya_koroleva_dzhun_little_queen_tom_1_3855/',</v>
+      </c>
+      <c r="C477" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/d8e/manga-yunaya-koroleva-dzhun-little-queen-tom-1.jpg',</v>
+      </c>
+      <c r="D477" t="str">
+        <f t="shared" si="4"/>
+        <v>'260 руб.',</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A478" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Знаток Муси. Том 1',</v>
+      </c>
+      <c r="B478" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_znatok_musi_tom_1_570083/',</v>
+      </c>
+      <c r="C478" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/f62/manga-znatok-musi-tom-1.jpg',</v>
+      </c>
+      <c r="D478" t="str">
+        <f t="shared" si="4"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A479" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Orange. Том 5',</v>
+      </c>
+      <c r="B479" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_orange_tom_5_570069/',</v>
+      </c>
+      <c r="C479" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/f40/manga-orange-tom-5.jpg',</v>
+      </c>
+      <c r="D479" t="str">
+        <f t="shared" si="4"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A480" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Orange. Том 4',</v>
+      </c>
+      <c r="B480" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_orange_tom_4_570068/',</v>
+      </c>
+      <c r="C480" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/f1f/manga-orange-tom-4.jpg',</v>
+      </c>
+      <c r="D480" t="str">
+        <f t="shared" si="4"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A481" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Orange. Том 3',</v>
+      </c>
+      <c r="B481" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_orange_tom_3_570066/',</v>
+      </c>
+      <c r="C481" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/f27/manga-orange-tom-3.jpg',</v>
+      </c>
+      <c r="D481" t="str">
+        <f t="shared" si="4"/>
+        <v>'400 руб.',</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A482" t="str">
+        <f t="shared" si="5"/>
+        <v>'Манга Ты сияешь лунной ночью / Kimi wa Tsukiyo ni Hikari Kagayaku Том 2.',</v>
+      </c>
+      <c r="B482" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/catalog/manga_ty_siyaesh_lunnoy_nochyu_kimi_wa_tsukiyo_ni_hikari_kagayaku_tom_2_570061/',</v>
+      </c>
+      <c r="C482" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>'https://diskomir.ru/upload/iblock/164/manga-ty-siyaesh-lunnoy-nochyu-kimi-wa-tsukiyo-ni-hikari-kagayaku-tom-2.jpeg',</v>
+      </c>
+      <c r="D482" t="str">
+        <f t="shared" si="4"/>
+        <v>'320 руб.',</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A483" t="str">
+        <f>"'"&amp;A241:A241&amp;"'"</f>
+        <v>'Манга Сейлор Мун / Sailor Moon. Том 6'</v>
+      </c>
+      <c r="B483" t="str">
+        <f t="shared" ref="A437:C485" si="6">"'"&amp;B241:B241&amp;"'"</f>
+        <v>'https://diskomir.ru/catalog/manga_seylor_mun_sailor_moon_tom_6_570055/'</v>
+      </c>
+      <c r="C483" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>'https://diskomir.ru/upload/iblock/810/manga-seylor-mun-sailor-moon-tom-6.jpeg'</v>
+      </c>
+      <c r="D483" t="str">
+        <f t="shared" ref="D436:D483" si="7">"'"&amp;D241:D241&amp;"'"</f>
+        <v>'340 руб.'</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:D161" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:D27 A32:D161 B31:D31 A29:D30 B28:D28" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>